--- a/V1/Calender_Automation_Test/Q2FY22 Automation Master Training Calendar V0.2.xlsx
+++ b/V1/Calender_Automation_Test/Q2FY22 Automation Master Training Calendar V0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010754\Desktop\Excel Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2aab48119d690a95/Documents/MATLAB/Calender auomation product/Product_Calender_Automation/V1/Calender_Automation_Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB11D06-4FEB-4BA5-9FEF-D4C98B215925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{7CB73E93-1072-47E4-9325-DF6C5CF24E8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{7CB73E93-1072-47E4-9325-DF6C5CF24E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Calendar_Simple" sheetId="10" r:id="rId1"/>
@@ -1404,21 +1404,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,10 +1434,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,25 +1467,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,6 +1498,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1849,535 +1849,535 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="66.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" style="4" customWidth="1"/>
-    <col min="15" max="18" width="12.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" style="4" customWidth="1"/>
+    <col min="15" max="18" width="12.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="166" max="166" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="2.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="2.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="2" style="4" customWidth="1"/>
-    <col min="189" max="189" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="2" style="4" customWidth="1"/>
-    <col min="203" max="203" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="214" max="214" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="218" max="218" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="226" max="226" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="230" max="230" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="238" max="238" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="242" max="242" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="246" max="246" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="248" max="248" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="254" max="254" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="2.85546875" style="11" customWidth="1"/>
+    <col min="263" max="263" width="2.88671875" style="11" customWidth="1"/>
     <col min="264" max="264" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="268" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="270" max="270" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="2" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.3">
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="80">
+      <c r="S1" s="75">
         <v>44378</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="83">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="76"/>
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BV1" s="76"/>
+      <c r="BW1" s="76"/>
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="77"/>
+      <c r="CC1" s="78">
         <v>44409</v>
       </c>
-      <c r="CD1" s="84"/>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
-      <c r="CI1" s="84"/>
-      <c r="CJ1" s="84"/>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
-      <c r="CN1" s="84"/>
-      <c r="CO1" s="84"/>
-      <c r="CP1" s="84"/>
-      <c r="CQ1" s="84"/>
-      <c r="CR1" s="84"/>
-      <c r="CS1" s="84"/>
-      <c r="CT1" s="84"/>
-      <c r="CU1" s="84"/>
-      <c r="CV1" s="84"/>
-      <c r="CW1" s="84"/>
-      <c r="CX1" s="84"/>
-      <c r="CY1" s="84"/>
-      <c r="CZ1" s="84"/>
-      <c r="DA1" s="84"/>
-      <c r="DB1" s="84"/>
-      <c r="DC1" s="84"/>
-      <c r="DD1" s="84"/>
-      <c r="DE1" s="84"/>
-      <c r="DF1" s="84"/>
-      <c r="DG1" s="84"/>
-      <c r="DH1" s="84"/>
-      <c r="DI1" s="84"/>
-      <c r="DJ1" s="84"/>
-      <c r="DK1" s="84"/>
-      <c r="DL1" s="84"/>
-      <c r="DM1" s="84"/>
-      <c r="DN1" s="84"/>
-      <c r="DO1" s="84"/>
-      <c r="DP1" s="84"/>
-      <c r="DQ1" s="84"/>
-      <c r="DR1" s="84"/>
-      <c r="DS1" s="84"/>
-      <c r="DT1" s="84"/>
-      <c r="DU1" s="84"/>
-      <c r="DV1" s="84"/>
-      <c r="DW1" s="84"/>
-      <c r="DX1" s="84"/>
-      <c r="DY1" s="84"/>
-      <c r="DZ1" s="84"/>
-      <c r="EA1" s="84"/>
-      <c r="EB1" s="84"/>
-      <c r="EC1" s="84"/>
-      <c r="ED1" s="84"/>
-      <c r="EE1" s="84"/>
-      <c r="EF1" s="84"/>
-      <c r="EG1" s="84"/>
-      <c r="EH1" s="84"/>
-      <c r="EI1" s="84"/>
-      <c r="EJ1" s="84"/>
-      <c r="EK1" s="84"/>
-      <c r="EL1" s="84"/>
-      <c r="EM1" s="85">
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="79"/>
+      <c r="CG1" s="79"/>
+      <c r="CH1" s="79"/>
+      <c r="CI1" s="79"/>
+      <c r="CJ1" s="79"/>
+      <c r="CK1" s="79"/>
+      <c r="CL1" s="79"/>
+      <c r="CM1" s="79"/>
+      <c r="CN1" s="79"/>
+      <c r="CO1" s="79"/>
+      <c r="CP1" s="79"/>
+      <c r="CQ1" s="79"/>
+      <c r="CR1" s="79"/>
+      <c r="CS1" s="79"/>
+      <c r="CT1" s="79"/>
+      <c r="CU1" s="79"/>
+      <c r="CV1" s="79"/>
+      <c r="CW1" s="79"/>
+      <c r="CX1" s="79"/>
+      <c r="CY1" s="79"/>
+      <c r="CZ1" s="79"/>
+      <c r="DA1" s="79"/>
+      <c r="DB1" s="79"/>
+      <c r="DC1" s="79"/>
+      <c r="DD1" s="79"/>
+      <c r="DE1" s="79"/>
+      <c r="DF1" s="79"/>
+      <c r="DG1" s="79"/>
+      <c r="DH1" s="79"/>
+      <c r="DI1" s="79"/>
+      <c r="DJ1" s="79"/>
+      <c r="DK1" s="79"/>
+      <c r="DL1" s="79"/>
+      <c r="DM1" s="79"/>
+      <c r="DN1" s="79"/>
+      <c r="DO1" s="79"/>
+      <c r="DP1" s="79"/>
+      <c r="DQ1" s="79"/>
+      <c r="DR1" s="79"/>
+      <c r="DS1" s="79"/>
+      <c r="DT1" s="79"/>
+      <c r="DU1" s="79"/>
+      <c r="DV1" s="79"/>
+      <c r="DW1" s="79"/>
+      <c r="DX1" s="79"/>
+      <c r="DY1" s="79"/>
+      <c r="DZ1" s="79"/>
+      <c r="EA1" s="79"/>
+      <c r="EB1" s="79"/>
+      <c r="EC1" s="79"/>
+      <c r="ED1" s="79"/>
+      <c r="EE1" s="79"/>
+      <c r="EF1" s="79"/>
+      <c r="EG1" s="79"/>
+      <c r="EH1" s="79"/>
+      <c r="EI1" s="79"/>
+      <c r="EJ1" s="79"/>
+      <c r="EK1" s="79"/>
+      <c r="EL1" s="79"/>
+      <c r="EM1" s="80">
         <v>44440</v>
       </c>
-      <c r="EN1" s="86"/>
-      <c r="EO1" s="86"/>
-      <c r="EP1" s="86"/>
-      <c r="EQ1" s="86"/>
-      <c r="ER1" s="86"/>
-      <c r="ES1" s="86"/>
-      <c r="ET1" s="86"/>
-      <c r="EU1" s="86"/>
-      <c r="EV1" s="86"/>
-      <c r="EW1" s="86"/>
-      <c r="EX1" s="86"/>
-      <c r="EY1" s="86"/>
-      <c r="EZ1" s="86"/>
-      <c r="FA1" s="86"/>
-      <c r="FB1" s="86"/>
-      <c r="FC1" s="86"/>
-      <c r="FD1" s="86"/>
-      <c r="FE1" s="86"/>
-      <c r="FF1" s="86"/>
-      <c r="FG1" s="86"/>
-      <c r="FH1" s="86"/>
-      <c r="FI1" s="86"/>
-      <c r="FJ1" s="86"/>
-      <c r="FK1" s="86"/>
-      <c r="FL1" s="86"/>
-      <c r="FM1" s="86"/>
-      <c r="FN1" s="86"/>
-      <c r="FO1" s="86"/>
-      <c r="FP1" s="86"/>
-      <c r="FQ1" s="86"/>
-      <c r="FR1" s="86"/>
-      <c r="FS1" s="86"/>
-      <c r="FT1" s="86"/>
-      <c r="FU1" s="86"/>
-      <c r="FV1" s="86"/>
-      <c r="FW1" s="86"/>
-      <c r="FX1" s="86"/>
-      <c r="FY1" s="86"/>
-      <c r="FZ1" s="86"/>
-      <c r="GA1" s="86"/>
-      <c r="GB1" s="86"/>
-      <c r="GC1" s="86"/>
-      <c r="GD1" s="86"/>
-      <c r="GE1" s="86"/>
-      <c r="GF1" s="86"/>
-      <c r="GG1" s="86"/>
-      <c r="GH1" s="86"/>
-      <c r="GI1" s="86"/>
-      <c r="GJ1" s="86"/>
-      <c r="GK1" s="86"/>
-      <c r="GL1" s="86"/>
-      <c r="GM1" s="86"/>
-      <c r="GN1" s="86"/>
-      <c r="GO1" s="86"/>
-      <c r="GP1" s="86"/>
-      <c r="GQ1" s="86"/>
-      <c r="GR1" s="86"/>
-      <c r="GS1" s="86"/>
-      <c r="GT1" s="86"/>
-      <c r="GU1" s="87">
+      <c r="EN1" s="81"/>
+      <c r="EO1" s="81"/>
+      <c r="EP1" s="81"/>
+      <c r="EQ1" s="81"/>
+      <c r="ER1" s="81"/>
+      <c r="ES1" s="81"/>
+      <c r="ET1" s="81"/>
+      <c r="EU1" s="81"/>
+      <c r="EV1" s="81"/>
+      <c r="EW1" s="81"/>
+      <c r="EX1" s="81"/>
+      <c r="EY1" s="81"/>
+      <c r="EZ1" s="81"/>
+      <c r="FA1" s="81"/>
+      <c r="FB1" s="81"/>
+      <c r="FC1" s="81"/>
+      <c r="FD1" s="81"/>
+      <c r="FE1" s="81"/>
+      <c r="FF1" s="81"/>
+      <c r="FG1" s="81"/>
+      <c r="FH1" s="81"/>
+      <c r="FI1" s="81"/>
+      <c r="FJ1" s="81"/>
+      <c r="FK1" s="81"/>
+      <c r="FL1" s="81"/>
+      <c r="FM1" s="81"/>
+      <c r="FN1" s="81"/>
+      <c r="FO1" s="81"/>
+      <c r="FP1" s="81"/>
+      <c r="FQ1" s="81"/>
+      <c r="FR1" s="81"/>
+      <c r="FS1" s="81"/>
+      <c r="FT1" s="81"/>
+      <c r="FU1" s="81"/>
+      <c r="FV1" s="81"/>
+      <c r="FW1" s="81"/>
+      <c r="FX1" s="81"/>
+      <c r="FY1" s="81"/>
+      <c r="FZ1" s="81"/>
+      <c r="GA1" s="81"/>
+      <c r="GB1" s="81"/>
+      <c r="GC1" s="81"/>
+      <c r="GD1" s="81"/>
+      <c r="GE1" s="81"/>
+      <c r="GF1" s="81"/>
+      <c r="GG1" s="81"/>
+      <c r="GH1" s="81"/>
+      <c r="GI1" s="81"/>
+      <c r="GJ1" s="81"/>
+      <c r="GK1" s="81"/>
+      <c r="GL1" s="81"/>
+      <c r="GM1" s="81"/>
+      <c r="GN1" s="81"/>
+      <c r="GO1" s="81"/>
+      <c r="GP1" s="81"/>
+      <c r="GQ1" s="81"/>
+      <c r="GR1" s="81"/>
+      <c r="GS1" s="81"/>
+      <c r="GT1" s="81"/>
+      <c r="GU1" s="82">
         <v>44470</v>
       </c>
-      <c r="GV1" s="88"/>
-      <c r="GW1" s="88"/>
-      <c r="GX1" s="88"/>
-      <c r="GY1" s="88"/>
-      <c r="GZ1" s="88"/>
-      <c r="HA1" s="88"/>
-      <c r="HB1" s="88"/>
-      <c r="HC1" s="88"/>
-      <c r="HD1" s="88"/>
-      <c r="HE1" s="88"/>
-      <c r="HF1" s="88"/>
-      <c r="HG1" s="88"/>
-      <c r="HH1" s="88"/>
-      <c r="HI1" s="88"/>
-      <c r="HJ1" s="88"/>
-      <c r="HK1" s="88"/>
-      <c r="HL1" s="88"/>
-      <c r="HM1" s="88"/>
-      <c r="HN1" s="88"/>
-      <c r="HO1" s="88"/>
-      <c r="HP1" s="88"/>
-      <c r="HQ1" s="88"/>
-      <c r="HR1" s="88"/>
-      <c r="HS1" s="88"/>
-      <c r="HT1" s="88"/>
-      <c r="HU1" s="88"/>
-      <c r="HV1" s="88"/>
-      <c r="HW1" s="88"/>
-      <c r="HX1" s="88"/>
-      <c r="HY1" s="88"/>
-      <c r="HZ1" s="88"/>
-      <c r="IA1" s="88"/>
-      <c r="IB1" s="88"/>
-      <c r="IC1" s="88"/>
-      <c r="ID1" s="88"/>
-      <c r="IE1" s="88"/>
-      <c r="IF1" s="88"/>
-      <c r="IG1" s="88"/>
-      <c r="IH1" s="88"/>
-      <c r="II1" s="88"/>
-      <c r="IJ1" s="88"/>
-      <c r="IK1" s="88"/>
-      <c r="IL1" s="88"/>
-      <c r="IM1" s="88"/>
-      <c r="IN1" s="88"/>
-      <c r="IO1" s="88"/>
-      <c r="IP1" s="88"/>
-      <c r="IQ1" s="88"/>
-      <c r="IR1" s="88"/>
-      <c r="IS1" s="88"/>
-      <c r="IT1" s="88"/>
-      <c r="IU1" s="88"/>
-      <c r="IV1" s="88"/>
-      <c r="IW1" s="88"/>
-      <c r="IX1" s="88"/>
-      <c r="IY1" s="88"/>
-      <c r="IZ1" s="88"/>
-      <c r="JA1" s="88"/>
-      <c r="JB1" s="88"/>
-      <c r="JC1" s="88"/>
-      <c r="JD1" s="88"/>
+      <c r="GV1" s="83"/>
+      <c r="GW1" s="83"/>
+      <c r="GX1" s="83"/>
+      <c r="GY1" s="83"/>
+      <c r="GZ1" s="83"/>
+      <c r="HA1" s="83"/>
+      <c r="HB1" s="83"/>
+      <c r="HC1" s="83"/>
+      <c r="HD1" s="83"/>
+      <c r="HE1" s="83"/>
+      <c r="HF1" s="83"/>
+      <c r="HG1" s="83"/>
+      <c r="HH1" s="83"/>
+      <c r="HI1" s="83"/>
+      <c r="HJ1" s="83"/>
+      <c r="HK1" s="83"/>
+      <c r="HL1" s="83"/>
+      <c r="HM1" s="83"/>
+      <c r="HN1" s="83"/>
+      <c r="HO1" s="83"/>
+      <c r="HP1" s="83"/>
+      <c r="HQ1" s="83"/>
+      <c r="HR1" s="83"/>
+      <c r="HS1" s="83"/>
+      <c r="HT1" s="83"/>
+      <c r="HU1" s="83"/>
+      <c r="HV1" s="83"/>
+      <c r="HW1" s="83"/>
+      <c r="HX1" s="83"/>
+      <c r="HY1" s="83"/>
+      <c r="HZ1" s="83"/>
+      <c r="IA1" s="83"/>
+      <c r="IB1" s="83"/>
+      <c r="IC1" s="83"/>
+      <c r="ID1" s="83"/>
+      <c r="IE1" s="83"/>
+      <c r="IF1" s="83"/>
+      <c r="IG1" s="83"/>
+      <c r="IH1" s="83"/>
+      <c r="II1" s="83"/>
+      <c r="IJ1" s="83"/>
+      <c r="IK1" s="83"/>
+      <c r="IL1" s="83"/>
+      <c r="IM1" s="83"/>
+      <c r="IN1" s="83"/>
+      <c r="IO1" s="83"/>
+      <c r="IP1" s="83"/>
+      <c r="IQ1" s="83"/>
+      <c r="IR1" s="83"/>
+      <c r="IS1" s="83"/>
+      <c r="IT1" s="83"/>
+      <c r="IU1" s="83"/>
+      <c r="IV1" s="83"/>
+      <c r="IW1" s="83"/>
+      <c r="IX1" s="83"/>
+      <c r="IY1" s="83"/>
+      <c r="IZ1" s="83"/>
+      <c r="JA1" s="83"/>
+      <c r="JB1" s="83"/>
+      <c r="JC1" s="83"/>
+      <c r="JD1" s="83"/>
       <c r="JE1"/>
       <c r="JF1"/>
       <c r="JG1"/>
@@ -2387,7 +2387,7 @@
       <c r="JK1"/>
       <c r="JL1"/>
     </row>
-    <row r="2" spans="1:272" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="60"/>
       <c r="C2" s="57"/>
@@ -2406,516 +2406,516 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="89">
+      <c r="S2" s="84">
         <v>1</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77">
+      <c r="T2" s="85"/>
+      <c r="U2" s="85">
         <v>2</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="76">
+      <c r="V2" s="85"/>
+      <c r="W2" s="86">
         <v>3</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86">
         <v>4</v>
       </c>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="85">
         <v>5</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85">
         <v>6</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77">
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85">
         <v>7</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85">
         <v>8</v>
       </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85">
         <v>9</v>
       </c>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="76">
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="86">
         <v>10</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76">
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86">
         <v>11</v>
       </c>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="77">
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="85">
         <v>12</v>
       </c>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77">
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85">
         <v>13</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77">
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85">
         <v>14</v>
       </c>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77">
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85">
         <v>15</v>
       </c>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77">
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85">
         <v>16</v>
       </c>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="76">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="86">
         <v>17</v>
       </c>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76">
-        <v>18</v>
-      </c>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="77">
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86">
+        <v>18</v>
+      </c>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="85">
         <v>19</v>
       </c>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77">
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85">
         <v>20</v>
       </c>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77">
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85">
         <v>21</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77">
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="85">
         <v>22</v>
       </c>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77">
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85">
         <v>23</v>
       </c>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="76">
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="86">
         <v>24</v>
       </c>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76">
+      <c r="BN2" s="86"/>
+      <c r="BO2" s="86">
         <v>25</v>
       </c>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="77">
+      <c r="BP2" s="86"/>
+      <c r="BQ2" s="85">
         <v>26</v>
       </c>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77">
+      <c r="BR2" s="85"/>
+      <c r="BS2" s="85">
         <v>27</v>
       </c>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77">
+      <c r="BT2" s="85"/>
+      <c r="BU2" s="85">
         <v>28</v>
       </c>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77">
+      <c r="BV2" s="85"/>
+      <c r="BW2" s="85">
         <v>29</v>
       </c>
-      <c r="BX2" s="77"/>
-      <c r="BY2" s="77">
+      <c r="BX2" s="85"/>
+      <c r="BY2" s="85">
         <v>30</v>
       </c>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="76">
+      <c r="BZ2" s="85"/>
+      <c r="CA2" s="86">
         <v>31</v>
       </c>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="79">
+      <c r="CB2" s="87"/>
+      <c r="CC2" s="88">
         <v>1</v>
       </c>
-      <c r="CD2" s="76"/>
-      <c r="CE2" s="77">
+      <c r="CD2" s="86"/>
+      <c r="CE2" s="85">
         <v>2</v>
       </c>
-      <c r="CF2" s="77"/>
-      <c r="CG2" s="77">
+      <c r="CF2" s="85"/>
+      <c r="CG2" s="85">
         <v>3</v>
       </c>
-      <c r="CH2" s="77"/>
-      <c r="CI2" s="77">
+      <c r="CH2" s="85"/>
+      <c r="CI2" s="85">
         <v>4</v>
       </c>
-      <c r="CJ2" s="77"/>
-      <c r="CK2" s="77">
+      <c r="CJ2" s="85"/>
+      <c r="CK2" s="85">
         <v>5</v>
       </c>
-      <c r="CL2" s="77"/>
-      <c r="CM2" s="77">
+      <c r="CL2" s="85"/>
+      <c r="CM2" s="85">
         <v>6</v>
       </c>
-      <c r="CN2" s="77"/>
-      <c r="CO2" s="76">
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="86">
         <v>7</v>
       </c>
-      <c r="CP2" s="76"/>
-      <c r="CQ2" s="76">
+      <c r="CP2" s="86"/>
+      <c r="CQ2" s="86">
         <v>8</v>
       </c>
-      <c r="CR2" s="76"/>
-      <c r="CS2" s="77">
+      <c r="CR2" s="86"/>
+      <c r="CS2" s="85">
         <v>9</v>
       </c>
-      <c r="CT2" s="77"/>
-      <c r="CU2" s="77">
+      <c r="CT2" s="85"/>
+      <c r="CU2" s="85">
         <v>10</v>
       </c>
-      <c r="CV2" s="77"/>
-      <c r="CW2" s="77">
+      <c r="CV2" s="85"/>
+      <c r="CW2" s="85">
         <v>11</v>
       </c>
-      <c r="CX2" s="77"/>
-      <c r="CY2" s="77">
+      <c r="CX2" s="85"/>
+      <c r="CY2" s="85">
         <v>12</v>
       </c>
-      <c r="CZ2" s="77"/>
-      <c r="DA2" s="77">
+      <c r="CZ2" s="85"/>
+      <c r="DA2" s="85">
         <v>13</v>
       </c>
-      <c r="DB2" s="77"/>
-      <c r="DC2" s="76">
+      <c r="DB2" s="85"/>
+      <c r="DC2" s="86">
         <v>14</v>
       </c>
-      <c r="DD2" s="76"/>
-      <c r="DE2" s="76">
+      <c r="DD2" s="86"/>
+      <c r="DE2" s="86">
         <v>15</v>
       </c>
-      <c r="DF2" s="76"/>
-      <c r="DG2" s="77">
+      <c r="DF2" s="86"/>
+      <c r="DG2" s="85">
         <v>16</v>
       </c>
-      <c r="DH2" s="77"/>
-      <c r="DI2" s="77">
+      <c r="DH2" s="85"/>
+      <c r="DI2" s="85">
         <v>17</v>
       </c>
-      <c r="DJ2" s="77"/>
-      <c r="DK2" s="77">
-        <v>18</v>
-      </c>
-      <c r="DL2" s="77"/>
-      <c r="DM2" s="77">
+      <c r="DJ2" s="85"/>
+      <c r="DK2" s="85">
+        <v>18</v>
+      </c>
+      <c r="DL2" s="85"/>
+      <c r="DM2" s="85">
         <v>19</v>
       </c>
-      <c r="DN2" s="77"/>
-      <c r="DO2" s="77">
+      <c r="DN2" s="85"/>
+      <c r="DO2" s="85">
         <v>20</v>
       </c>
-      <c r="DP2" s="77"/>
-      <c r="DQ2" s="76">
+      <c r="DP2" s="85"/>
+      <c r="DQ2" s="86">
         <v>21</v>
       </c>
-      <c r="DR2" s="76"/>
-      <c r="DS2" s="76">
+      <c r="DR2" s="86"/>
+      <c r="DS2" s="86">
         <v>22</v>
       </c>
-      <c r="DT2" s="76"/>
-      <c r="DU2" s="77">
+      <c r="DT2" s="86"/>
+      <c r="DU2" s="85">
         <v>23</v>
       </c>
-      <c r="DV2" s="77"/>
-      <c r="DW2" s="77">
+      <c r="DV2" s="85"/>
+      <c r="DW2" s="85">
         <v>24</v>
       </c>
-      <c r="DX2" s="77"/>
-      <c r="DY2" s="77">
+      <c r="DX2" s="85"/>
+      <c r="DY2" s="85">
         <v>25</v>
       </c>
-      <c r="DZ2" s="77"/>
-      <c r="EA2" s="77">
+      <c r="DZ2" s="85"/>
+      <c r="EA2" s="85">
         <v>26</v>
       </c>
-      <c r="EB2" s="77"/>
-      <c r="EC2" s="77">
+      <c r="EB2" s="85"/>
+      <c r="EC2" s="85">
         <v>27</v>
       </c>
-      <c r="ED2" s="77"/>
-      <c r="EE2" s="76">
+      <c r="ED2" s="85"/>
+      <c r="EE2" s="86">
         <v>28</v>
       </c>
-      <c r="EF2" s="76"/>
-      <c r="EG2" s="76">
+      <c r="EF2" s="86"/>
+      <c r="EG2" s="86">
         <v>29</v>
       </c>
-      <c r="EH2" s="76"/>
-      <c r="EI2" s="77">
+      <c r="EH2" s="86"/>
+      <c r="EI2" s="85">
         <v>30</v>
       </c>
-      <c r="EJ2" s="77"/>
-      <c r="EK2" s="77">
+      <c r="EJ2" s="85"/>
+      <c r="EK2" s="85">
         <v>31</v>
       </c>
-      <c r="EL2" s="77"/>
-      <c r="EM2" s="77">
+      <c r="EL2" s="85"/>
+      <c r="EM2" s="85">
         <v>1</v>
       </c>
-      <c r="EN2" s="77"/>
-      <c r="EO2" s="77">
+      <c r="EN2" s="85"/>
+      <c r="EO2" s="85">
         <v>2</v>
       </c>
-      <c r="EP2" s="77"/>
-      <c r="EQ2" s="77">
+      <c r="EP2" s="85"/>
+      <c r="EQ2" s="85">
         <v>3</v>
       </c>
-      <c r="ER2" s="77"/>
-      <c r="ES2" s="76">
+      <c r="ER2" s="85"/>
+      <c r="ES2" s="86">
         <v>4</v>
       </c>
-      <c r="ET2" s="76"/>
-      <c r="EU2" s="76">
+      <c r="ET2" s="86"/>
+      <c r="EU2" s="86">
         <v>5</v>
       </c>
-      <c r="EV2" s="76"/>
-      <c r="EW2" s="77">
+      <c r="EV2" s="86"/>
+      <c r="EW2" s="85">
         <v>6</v>
       </c>
-      <c r="EX2" s="77"/>
-      <c r="EY2" s="77">
+      <c r="EX2" s="85"/>
+      <c r="EY2" s="85">
         <v>7</v>
       </c>
-      <c r="EZ2" s="77"/>
-      <c r="FA2" s="77">
+      <c r="EZ2" s="85"/>
+      <c r="FA2" s="85">
         <v>8</v>
       </c>
-      <c r="FB2" s="77"/>
-      <c r="FC2" s="77">
+      <c r="FB2" s="85"/>
+      <c r="FC2" s="85">
         <v>9</v>
       </c>
-      <c r="FD2" s="77"/>
-      <c r="FE2" s="75">
+      <c r="FD2" s="85"/>
+      <c r="FE2" s="89">
         <v>10</v>
       </c>
-      <c r="FF2" s="75"/>
-      <c r="FG2" s="76">
+      <c r="FF2" s="89"/>
+      <c r="FG2" s="86">
         <v>11</v>
       </c>
-      <c r="FH2" s="76"/>
-      <c r="FI2" s="76">
+      <c r="FH2" s="86"/>
+      <c r="FI2" s="86">
         <v>12</v>
       </c>
-      <c r="FJ2" s="76"/>
-      <c r="FK2" s="77">
+      <c r="FJ2" s="86"/>
+      <c r="FK2" s="85">
         <v>13</v>
       </c>
-      <c r="FL2" s="77"/>
-      <c r="FM2" s="77">
+      <c r="FL2" s="85"/>
+      <c r="FM2" s="85">
         <v>14</v>
       </c>
-      <c r="FN2" s="77"/>
-      <c r="FO2" s="77">
+      <c r="FN2" s="85"/>
+      <c r="FO2" s="85">
         <v>15</v>
       </c>
-      <c r="FP2" s="77"/>
-      <c r="FQ2" s="77">
+      <c r="FP2" s="85"/>
+      <c r="FQ2" s="85">
         <v>16</v>
       </c>
-      <c r="FR2" s="77"/>
-      <c r="FS2" s="75">
+      <c r="FR2" s="85"/>
+      <c r="FS2" s="89">
         <v>17</v>
       </c>
-      <c r="FT2" s="75"/>
-      <c r="FU2" s="76">
-        <v>18</v>
-      </c>
-      <c r="FV2" s="76"/>
-      <c r="FW2" s="76">
+      <c r="FT2" s="89"/>
+      <c r="FU2" s="86">
+        <v>18</v>
+      </c>
+      <c r="FV2" s="86"/>
+      <c r="FW2" s="86">
         <v>19</v>
       </c>
-      <c r="FX2" s="76"/>
-      <c r="FY2" s="77">
+      <c r="FX2" s="86"/>
+      <c r="FY2" s="85">
         <v>20</v>
       </c>
-      <c r="FZ2" s="77"/>
-      <c r="GA2" s="77">
+      <c r="FZ2" s="85"/>
+      <c r="GA2" s="85">
         <v>21</v>
       </c>
-      <c r="GB2" s="77"/>
-      <c r="GC2" s="77">
+      <c r="GB2" s="85"/>
+      <c r="GC2" s="85">
         <v>22</v>
       </c>
-      <c r="GD2" s="77"/>
-      <c r="GE2" s="77">
+      <c r="GD2" s="85"/>
+      <c r="GE2" s="85">
         <v>23</v>
       </c>
-      <c r="GF2" s="77"/>
-      <c r="GG2" s="75">
+      <c r="GF2" s="85"/>
+      <c r="GG2" s="89">
         <v>24</v>
       </c>
-      <c r="GH2" s="75"/>
-      <c r="GI2" s="76">
+      <c r="GH2" s="89"/>
+      <c r="GI2" s="86">
         <v>25</v>
       </c>
-      <c r="GJ2" s="76"/>
-      <c r="GK2" s="76">
+      <c r="GJ2" s="86"/>
+      <c r="GK2" s="86">
         <v>26</v>
       </c>
-      <c r="GL2" s="76"/>
-      <c r="GM2" s="77">
+      <c r="GL2" s="86"/>
+      <c r="GM2" s="85">
         <v>27</v>
       </c>
-      <c r="GN2" s="77"/>
-      <c r="GO2" s="77">
+      <c r="GN2" s="85"/>
+      <c r="GO2" s="85">
         <v>28</v>
       </c>
-      <c r="GP2" s="77"/>
-      <c r="GQ2" s="77">
+      <c r="GP2" s="85"/>
+      <c r="GQ2" s="85">
         <v>29</v>
       </c>
-      <c r="GR2" s="77"/>
-      <c r="GS2" s="77">
+      <c r="GR2" s="85"/>
+      <c r="GS2" s="85">
         <v>30</v>
       </c>
-      <c r="GT2" s="77"/>
-      <c r="GU2" s="75">
+      <c r="GT2" s="85"/>
+      <c r="GU2" s="89">
         <v>1</v>
       </c>
-      <c r="GV2" s="75"/>
-      <c r="GW2" s="76">
+      <c r="GV2" s="89"/>
+      <c r="GW2" s="86">
         <v>2</v>
       </c>
-      <c r="GX2" s="76"/>
-      <c r="GY2" s="76">
+      <c r="GX2" s="86"/>
+      <c r="GY2" s="86">
         <v>3</v>
       </c>
-      <c r="GZ2" s="76"/>
-      <c r="HA2" s="76">
+      <c r="GZ2" s="86"/>
+      <c r="HA2" s="86">
         <v>4</v>
       </c>
-      <c r="HB2" s="76"/>
-      <c r="HC2" s="76">
+      <c r="HB2" s="86"/>
+      <c r="HC2" s="86">
         <v>5</v>
       </c>
-      <c r="HD2" s="76"/>
-      <c r="HE2" s="76">
+      <c r="HD2" s="86"/>
+      <c r="HE2" s="86">
         <v>6</v>
       </c>
-      <c r="HF2" s="76"/>
-      <c r="HG2" s="76">
+      <c r="HF2" s="86"/>
+      <c r="HG2" s="86">
         <v>7</v>
       </c>
-      <c r="HH2" s="76"/>
-      <c r="HI2" s="76">
+      <c r="HH2" s="86"/>
+      <c r="HI2" s="86">
         <v>8</v>
       </c>
-      <c r="HJ2" s="76"/>
-      <c r="HK2" s="76">
+      <c r="HJ2" s="86"/>
+      <c r="HK2" s="86">
         <v>9</v>
       </c>
-      <c r="HL2" s="76"/>
-      <c r="HM2" s="76">
+      <c r="HL2" s="86"/>
+      <c r="HM2" s="86">
         <v>10</v>
       </c>
-      <c r="HN2" s="76"/>
-      <c r="HO2" s="75">
+      <c r="HN2" s="86"/>
+      <c r="HO2" s="89">
         <v>11</v>
       </c>
-      <c r="HP2" s="75"/>
-      <c r="HQ2" s="75">
+      <c r="HP2" s="89"/>
+      <c r="HQ2" s="89">
         <v>12</v>
       </c>
-      <c r="HR2" s="75"/>
-      <c r="HS2" s="75">
+      <c r="HR2" s="89"/>
+      <c r="HS2" s="89">
         <v>13</v>
       </c>
-      <c r="HT2" s="75"/>
-      <c r="HU2" s="75">
+      <c r="HT2" s="89"/>
+      <c r="HU2" s="89">
         <v>14</v>
       </c>
-      <c r="HV2" s="75"/>
-      <c r="HW2" s="75">
+      <c r="HV2" s="89"/>
+      <c r="HW2" s="89">
         <v>15</v>
       </c>
-      <c r="HX2" s="75"/>
-      <c r="HY2" s="76">
+      <c r="HX2" s="89"/>
+      <c r="HY2" s="86">
         <v>16</v>
       </c>
-      <c r="HZ2" s="76"/>
-      <c r="IA2" s="76">
+      <c r="HZ2" s="86"/>
+      <c r="IA2" s="86">
         <v>17</v>
       </c>
-      <c r="IB2" s="76"/>
-      <c r="IC2" s="76">
-        <v>18</v>
-      </c>
-      <c r="ID2" s="76"/>
-      <c r="IE2" s="76">
+      <c r="IB2" s="86"/>
+      <c r="IC2" s="86">
+        <v>18</v>
+      </c>
+      <c r="ID2" s="86"/>
+      <c r="IE2" s="86">
         <v>19</v>
       </c>
-      <c r="IF2" s="76"/>
-      <c r="IG2" s="76">
+      <c r="IF2" s="86"/>
+      <c r="IG2" s="86">
         <v>20</v>
       </c>
-      <c r="IH2" s="76"/>
-      <c r="II2" s="76">
+      <c r="IH2" s="86"/>
+      <c r="II2" s="86">
         <v>21</v>
       </c>
-      <c r="IJ2" s="76"/>
-      <c r="IK2" s="75">
+      <c r="IJ2" s="86"/>
+      <c r="IK2" s="89">
         <v>22</v>
       </c>
-      <c r="IL2" s="75"/>
-      <c r="IM2" s="76">
+      <c r="IL2" s="89"/>
+      <c r="IM2" s="86">
         <v>23</v>
       </c>
-      <c r="IN2" s="76"/>
-      <c r="IO2" s="76">
+      <c r="IN2" s="86"/>
+      <c r="IO2" s="86">
         <v>24</v>
       </c>
-      <c r="IP2" s="76"/>
-      <c r="IQ2" s="76">
+      <c r="IP2" s="86"/>
+      <c r="IQ2" s="86">
         <v>25</v>
       </c>
-      <c r="IR2" s="76"/>
-      <c r="IS2" s="76">
+      <c r="IR2" s="86"/>
+      <c r="IS2" s="86">
         <v>26</v>
       </c>
-      <c r="IT2" s="76"/>
-      <c r="IU2" s="76">
+      <c r="IT2" s="86"/>
+      <c r="IU2" s="86">
         <v>27</v>
       </c>
-      <c r="IV2" s="76"/>
-      <c r="IW2" s="76">
+      <c r="IV2" s="86"/>
+      <c r="IW2" s="86">
         <v>28</v>
       </c>
-      <c r="IX2" s="76"/>
-      <c r="IY2" s="75">
+      <c r="IX2" s="86"/>
+      <c r="IY2" s="89">
         <v>29</v>
       </c>
-      <c r="IZ2" s="75"/>
-      <c r="JA2" s="76">
+      <c r="IZ2" s="89"/>
+      <c r="JA2" s="86">
         <v>30</v>
       </c>
-      <c r="JB2" s="76"/>
-      <c r="JC2" s="76">
+      <c r="JB2" s="86"/>
+      <c r="JC2" s="86">
         <v>31</v>
       </c>
-      <c r="JD2" s="76"/>
-      <c r="JE2" s="77">
+      <c r="JD2" s="86"/>
+      <c r="JE2" s="85">
         <v>1</v>
       </c>
-      <c r="JF2" s="77"/>
-      <c r="JG2" s="77">
+      <c r="JF2" s="85"/>
+      <c r="JG2" s="85">
         <v>2</v>
       </c>
-      <c r="JH2" s="77"/>
-      <c r="JI2" s="77">
+      <c r="JH2" s="85"/>
+      <c r="JI2" s="85">
         <v>3</v>
       </c>
-      <c r="JJ2" s="77"/>
-      <c r="JK2" s="75">
+      <c r="JJ2" s="85"/>
+      <c r="JK2" s="89">
         <v>4</v>
       </c>
-      <c r="JL2" s="75"/>
-    </row>
-    <row r="3" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="JL2" s="89"/>
+    </row>
+    <row r="3" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="EU4" s="11"/>
       <c r="EV4" s="11"/>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="HO5" s="12"/>
       <c r="HQ5" s="12"/>
     </row>
-    <row r="6" spans="1:272" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:272" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="JK6" s="8"/>
       <c r="JL6" s="8"/>
     </row>
-    <row r="7" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="71" t="s">
         <v>120</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="JI7" s="4"/>
       <c r="JJ7" s="4"/>
     </row>
-    <row r="8" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="71" t="s">
         <v>120</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="JI8" s="4"/>
       <c r="JJ8" s="4"/>
     </row>
-    <row r="9" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74" t="s">
         <v>120</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="JI9" s="4"/>
       <c r="JJ9" s="4"/>
     </row>
-    <row r="10" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5154,7 +5154,7 @@
       <c r="JI10" s="4"/>
       <c r="JJ10" s="4"/>
     </row>
-    <row r="11" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5401,7 +5401,7 @@
       <c r="JI11" s="4"/>
       <c r="JJ11" s="4"/>
     </row>
-    <row r="12" spans="1:272" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:272" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -5651,6 +5651,113 @@
   </sheetData>
   <autoFilter ref="A3:JL9" xr:uid="{3605C9C1-6F26-4D96-A05A-97BDD32A35A7}"/>
   <mergeCells count="131">
+    <mergeCell ref="JK2:JL2"/>
+    <mergeCell ref="IY2:IZ2"/>
+    <mergeCell ref="JA2:JB2"/>
+    <mergeCell ref="JC2:JD2"/>
+    <mergeCell ref="JE2:JF2"/>
+    <mergeCell ref="JG2:JH2"/>
+    <mergeCell ref="JI2:JJ2"/>
+    <mergeCell ref="IM2:IN2"/>
+    <mergeCell ref="IO2:IP2"/>
+    <mergeCell ref="IQ2:IR2"/>
+    <mergeCell ref="IS2:IT2"/>
+    <mergeCell ref="IU2:IV2"/>
+    <mergeCell ref="IW2:IX2"/>
+    <mergeCell ref="IA2:IB2"/>
+    <mergeCell ref="IC2:ID2"/>
+    <mergeCell ref="IE2:IF2"/>
+    <mergeCell ref="IG2:IH2"/>
+    <mergeCell ref="II2:IJ2"/>
+    <mergeCell ref="IK2:IL2"/>
+    <mergeCell ref="HO2:HP2"/>
+    <mergeCell ref="HQ2:HR2"/>
+    <mergeCell ref="HS2:HT2"/>
+    <mergeCell ref="HU2:HV2"/>
+    <mergeCell ref="HW2:HX2"/>
+    <mergeCell ref="HY2:HZ2"/>
+    <mergeCell ref="HC2:HD2"/>
+    <mergeCell ref="HE2:HF2"/>
+    <mergeCell ref="HG2:HH2"/>
+    <mergeCell ref="HI2:HJ2"/>
+    <mergeCell ref="HK2:HL2"/>
+    <mergeCell ref="HM2:HN2"/>
+    <mergeCell ref="GQ2:GR2"/>
+    <mergeCell ref="GS2:GT2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="GW2:GX2"/>
+    <mergeCell ref="GY2:GZ2"/>
+    <mergeCell ref="HA2:HB2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="GG2:GH2"/>
+    <mergeCell ref="GI2:GJ2"/>
+    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:GP2"/>
+    <mergeCell ref="FS2:FT2"/>
+    <mergeCell ref="FU2:FV2"/>
+    <mergeCell ref="FW2:FX2"/>
+    <mergeCell ref="FY2:FZ2"/>
+    <mergeCell ref="GA2:GB2"/>
+    <mergeCell ref="GC2:GD2"/>
+    <mergeCell ref="FG2:FH2"/>
+    <mergeCell ref="FI2:FJ2"/>
+    <mergeCell ref="FK2:FL2"/>
+    <mergeCell ref="FM2:FN2"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FQ2:FR2"/>
+    <mergeCell ref="EU2:EV2"/>
+    <mergeCell ref="EW2:EX2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FB2"/>
+    <mergeCell ref="FC2:FD2"/>
+    <mergeCell ref="FE2:FF2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="EM2:EN2"/>
+    <mergeCell ref="EO2:EP2"/>
+    <mergeCell ref="EQ2:ER2"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="DW2:DX2"/>
+    <mergeCell ref="DY2:DZ2"/>
+    <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="EC2:ED2"/>
+    <mergeCell ref="EE2:EF2"/>
+    <mergeCell ref="EG2:EH2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="S1:CB1"/>
     <mergeCell ref="CC1:EL1"/>
     <mergeCell ref="EM1:GT1"/>
@@ -5675,113 +5782,6 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="EM2:EN2"/>
-    <mergeCell ref="EO2:EP2"/>
-    <mergeCell ref="EQ2:ER2"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EE2:EF2"/>
-    <mergeCell ref="EG2:EH2"/>
-    <mergeCell ref="FG2:FH2"/>
-    <mergeCell ref="FI2:FJ2"/>
-    <mergeCell ref="FK2:FL2"/>
-    <mergeCell ref="FM2:FN2"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FQ2:FR2"/>
-    <mergeCell ref="EU2:EV2"/>
-    <mergeCell ref="EW2:EX2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FB2"/>
-    <mergeCell ref="FC2:FD2"/>
-    <mergeCell ref="FE2:FF2"/>
-    <mergeCell ref="GE2:GF2"/>
-    <mergeCell ref="GG2:GH2"/>
-    <mergeCell ref="GI2:GJ2"/>
-    <mergeCell ref="GK2:GL2"/>
-    <mergeCell ref="GM2:GN2"/>
-    <mergeCell ref="GO2:GP2"/>
-    <mergeCell ref="FS2:FT2"/>
-    <mergeCell ref="FU2:FV2"/>
-    <mergeCell ref="FW2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GB2"/>
-    <mergeCell ref="GC2:GD2"/>
-    <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="HE2:HF2"/>
-    <mergeCell ref="HG2:HH2"/>
-    <mergeCell ref="HI2:HJ2"/>
-    <mergeCell ref="HK2:HL2"/>
-    <mergeCell ref="HM2:HN2"/>
-    <mergeCell ref="GQ2:GR2"/>
-    <mergeCell ref="GS2:GT2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="GW2:GX2"/>
-    <mergeCell ref="GY2:GZ2"/>
-    <mergeCell ref="HA2:HB2"/>
-    <mergeCell ref="IA2:IB2"/>
-    <mergeCell ref="IC2:ID2"/>
-    <mergeCell ref="IE2:IF2"/>
-    <mergeCell ref="IG2:IH2"/>
-    <mergeCell ref="II2:IJ2"/>
-    <mergeCell ref="IK2:IL2"/>
-    <mergeCell ref="HO2:HP2"/>
-    <mergeCell ref="HQ2:HR2"/>
-    <mergeCell ref="HS2:HT2"/>
-    <mergeCell ref="HU2:HV2"/>
-    <mergeCell ref="HW2:HX2"/>
-    <mergeCell ref="HY2:HZ2"/>
-    <mergeCell ref="JK2:JL2"/>
-    <mergeCell ref="IY2:IZ2"/>
-    <mergeCell ref="JA2:JB2"/>
-    <mergeCell ref="JC2:JD2"/>
-    <mergeCell ref="JE2:JF2"/>
-    <mergeCell ref="JG2:JH2"/>
-    <mergeCell ref="JI2:JJ2"/>
-    <mergeCell ref="IM2:IN2"/>
-    <mergeCell ref="IO2:IP2"/>
-    <mergeCell ref="IQ2:IR2"/>
-    <mergeCell ref="IS2:IT2"/>
-    <mergeCell ref="IU2:IV2"/>
-    <mergeCell ref="IW2:IX2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5797,17 +5797,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="33" t="s">
         <v>127</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="19" t="s">
         <v>121</v>
       </c>
@@ -5828,31 +5828,31 @@
       </c>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="19" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="19" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="70"/>
     </row>
-    <row r="10" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="21" t="s">
         <v>110</v>
       </c>
@@ -5872,10 +5872,10 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E2" s="55"/>
       <c r="F2" s="90" t="s">
         <v>172</v>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="K2" s="91"/>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E3" s="53"/>
       <c r="F3" s="51" t="s">
         <v>78</v>
@@ -5911,7 +5911,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E4" s="53" t="s">
         <v>170</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" s="53" t="s">
         <v>174</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="53" t="s">
         <v>175</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="53" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="53" t="s">
         <v>177</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" s="53" t="s">
         <v>178</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E10" s="53" t="s">
         <v>179</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E11" s="53" t="s">
         <v>180</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E12" s="53" t="s">
         <v>181</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E13" s="53" t="s">
         <v>182</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E14" s="53" t="s">
         <v>183</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E15" s="53"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -6173,7 +6173,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E16" s="53"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -6182,7 +6182,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="53"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -6191,7 +6191,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="54"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -6219,79 +6219,79 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" s="30"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="93"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92" t="s">
+      <c r="K2" s="94"/>
+      <c r="L2" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="94"/>
+      <c r="T2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="93"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U2" s="95"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>114</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>3</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>4</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>10</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>11</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -6829,72 +6829,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="95"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92" t="s">
+      <c r="G20" s="94"/>
+      <c r="H20" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92" t="s">
+      <c r="I20" s="94"/>
+      <c r="J20" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92" t="s">
+      <c r="K20" s="94"/>
+      <c r="L20" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92" t="s">
+      <c r="M20" s="94"/>
+      <c r="N20" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92" t="s">
+      <c r="O20" s="94"/>
+      <c r="P20" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92" t="s">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92" t="s">
+      <c r="S20" s="94"/>
+      <c r="T20" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U20" s="93"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U20" s="95"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>114</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>1</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>2</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>3</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>4</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>5</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>6</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>7</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>8</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>9</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>10</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>11</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27">
         <v>12</v>
       </c>
@@ -7432,72 +7432,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="95"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="93"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92" t="s">
+      <c r="E38" s="94"/>
+      <c r="F38" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92" t="s">
+      <c r="G38" s="94"/>
+      <c r="H38" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92" t="s">
+      <c r="I38" s="94"/>
+      <c r="J38" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92" t="s">
+      <c r="K38" s="94"/>
+      <c r="L38" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92" t="s">
+      <c r="M38" s="94"/>
+      <c r="N38" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92" t="s">
+      <c r="O38" s="94"/>
+      <c r="P38" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92" t="s">
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92" t="s">
+      <c r="S38" s="94"/>
+      <c r="T38" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="93"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U38" s="95"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
         <v>114</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>1</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>2</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>3</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>4</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>5</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>6</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>7</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>8</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="25">
         <v>9</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
         <v>10</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
         <v>11</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27">
         <v>12</v>
       </c>
@@ -8037,20 +8037,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
@@ -8067,6 +8053,20 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8078,398 +8078,398 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="R1:GV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="2.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="18:204" x14ac:dyDescent="0.25">
-      <c r="S1" s="101" t="s">
+    <row r="1" spans="18:204" x14ac:dyDescent="0.3">
+      <c r="S1" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102"/>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="102"/>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="102"/>
-      <c r="BR1" s="102"/>
-      <c r="BS1" s="102"/>
-      <c r="BT1" s="102"/>
-      <c r="BU1" s="102"/>
-      <c r="BV1" s="102"/>
-      <c r="BW1" s="102"/>
-      <c r="BX1" s="102"/>
-      <c r="BY1" s="102"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="102"/>
-      <c r="CB1" s="103"/>
-      <c r="CC1" s="104">
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="99"/>
+      <c r="BG1" s="99"/>
+      <c r="BH1" s="99"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="99"/>
+      <c r="BL1" s="99"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="99"/>
+      <c r="BO1" s="99"/>
+      <c r="BP1" s="99"/>
+      <c r="BQ1" s="99"/>
+      <c r="BR1" s="99"/>
+      <c r="BS1" s="99"/>
+      <c r="BT1" s="99"/>
+      <c r="BU1" s="99"/>
+      <c r="BV1" s="99"/>
+      <c r="BW1" s="99"/>
+      <c r="BX1" s="99"/>
+      <c r="BY1" s="99"/>
+      <c r="BZ1" s="99"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="100"/>
+      <c r="CC1" s="101">
         <v>44409</v>
       </c>
-      <c r="CD1" s="105"/>
-      <c r="CE1" s="105"/>
-      <c r="CF1" s="105"/>
-      <c r="CG1" s="105"/>
-      <c r="CH1" s="105"/>
-      <c r="CI1" s="105"/>
-      <c r="CJ1" s="105"/>
-      <c r="CK1" s="105"/>
-      <c r="CL1" s="105"/>
-      <c r="CM1" s="105"/>
-      <c r="CN1" s="105"/>
-      <c r="CO1" s="105"/>
-      <c r="CP1" s="105"/>
-      <c r="CQ1" s="105"/>
-      <c r="CR1" s="105"/>
-      <c r="CS1" s="105"/>
-      <c r="CT1" s="105"/>
-      <c r="CU1" s="105"/>
-      <c r="CV1" s="105"/>
-      <c r="CW1" s="105"/>
-      <c r="CX1" s="105"/>
-      <c r="CY1" s="105"/>
-      <c r="CZ1" s="105"/>
-      <c r="DA1" s="105"/>
-      <c r="DB1" s="105"/>
-      <c r="DC1" s="105"/>
-      <c r="DD1" s="105"/>
-      <c r="DE1" s="105"/>
-      <c r="DF1" s="105"/>
-      <c r="DG1" s="105"/>
-      <c r="DH1" s="105"/>
-      <c r="DI1" s="105"/>
-      <c r="DJ1" s="105"/>
-      <c r="DK1" s="105"/>
-      <c r="DL1" s="105"/>
-      <c r="DM1" s="105"/>
-      <c r="DN1" s="105"/>
-      <c r="DO1" s="105"/>
-      <c r="DP1" s="105"/>
-      <c r="DQ1" s="105"/>
-      <c r="DR1" s="105"/>
-      <c r="DS1" s="105"/>
-      <c r="DT1" s="105"/>
-      <c r="DU1" s="105"/>
-      <c r="DV1" s="105"/>
-      <c r="DW1" s="105"/>
-      <c r="DX1" s="105"/>
-      <c r="DY1" s="105"/>
-      <c r="DZ1" s="105"/>
-      <c r="EA1" s="105"/>
-      <c r="EB1" s="105"/>
-      <c r="EC1" s="105"/>
-      <c r="ED1" s="105"/>
-      <c r="EE1" s="105"/>
-      <c r="EF1" s="105"/>
-      <c r="EG1" s="105"/>
-      <c r="EH1" s="105"/>
-      <c r="EI1" s="105"/>
-      <c r="EJ1" s="105"/>
-      <c r="EK1" s="105"/>
-      <c r="EL1" s="83"/>
-      <c r="EM1" s="106">
+      <c r="CD1" s="102"/>
+      <c r="CE1" s="102"/>
+      <c r="CF1" s="102"/>
+      <c r="CG1" s="102"/>
+      <c r="CH1" s="102"/>
+      <c r="CI1" s="102"/>
+      <c r="CJ1" s="102"/>
+      <c r="CK1" s="102"/>
+      <c r="CL1" s="102"/>
+      <c r="CM1" s="102"/>
+      <c r="CN1" s="102"/>
+      <c r="CO1" s="102"/>
+      <c r="CP1" s="102"/>
+      <c r="CQ1" s="102"/>
+      <c r="CR1" s="102"/>
+      <c r="CS1" s="102"/>
+      <c r="CT1" s="102"/>
+      <c r="CU1" s="102"/>
+      <c r="CV1" s="102"/>
+      <c r="CW1" s="102"/>
+      <c r="CX1" s="102"/>
+      <c r="CY1" s="102"/>
+      <c r="CZ1" s="102"/>
+      <c r="DA1" s="102"/>
+      <c r="DB1" s="102"/>
+      <c r="DC1" s="102"/>
+      <c r="DD1" s="102"/>
+      <c r="DE1" s="102"/>
+      <c r="DF1" s="102"/>
+      <c r="DG1" s="102"/>
+      <c r="DH1" s="102"/>
+      <c r="DI1" s="102"/>
+      <c r="DJ1" s="102"/>
+      <c r="DK1" s="102"/>
+      <c r="DL1" s="102"/>
+      <c r="DM1" s="102"/>
+      <c r="DN1" s="102"/>
+      <c r="DO1" s="102"/>
+      <c r="DP1" s="102"/>
+      <c r="DQ1" s="102"/>
+      <c r="DR1" s="102"/>
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="103">
         <v>44440</v>
       </c>
-      <c r="EN1" s="107"/>
-      <c r="EO1" s="107"/>
-      <c r="EP1" s="107"/>
-      <c r="EQ1" s="107"/>
-      <c r="ER1" s="107"/>
-      <c r="ES1" s="107"/>
-      <c r="ET1" s="107"/>
-      <c r="EU1" s="107"/>
-      <c r="EV1" s="107"/>
-      <c r="EW1" s="107"/>
-      <c r="EX1" s="107"/>
-      <c r="EY1" s="107"/>
-      <c r="EZ1" s="107"/>
-      <c r="FA1" s="107"/>
-      <c r="FB1" s="107"/>
-      <c r="FC1" s="107"/>
-      <c r="FD1" s="107"/>
-      <c r="FE1" s="107"/>
-      <c r="FF1" s="107"/>
-      <c r="FG1" s="107"/>
-      <c r="FH1" s="107"/>
-      <c r="FI1" s="107"/>
-      <c r="FJ1" s="107"/>
-      <c r="FK1" s="107"/>
-      <c r="FL1" s="107"/>
-      <c r="FM1" s="107"/>
-      <c r="FN1" s="107"/>
-      <c r="FO1" s="107"/>
-      <c r="FP1" s="107"/>
-      <c r="FQ1" s="107"/>
-      <c r="FR1" s="107"/>
-      <c r="FS1" s="107"/>
-      <c r="FT1" s="107"/>
-      <c r="FU1" s="107"/>
-      <c r="FV1" s="107"/>
-      <c r="FW1" s="107"/>
-      <c r="FX1" s="107"/>
-      <c r="FY1" s="107"/>
-      <c r="FZ1" s="107"/>
-      <c r="GA1" s="107"/>
-      <c r="GB1" s="107"/>
-      <c r="GC1" s="107"/>
-      <c r="GD1" s="107"/>
-      <c r="GE1" s="107"/>
-      <c r="GF1" s="107"/>
-      <c r="GG1" s="107"/>
-      <c r="GH1" s="107"/>
-      <c r="GI1" s="107"/>
-      <c r="GJ1" s="107"/>
-      <c r="GK1" s="107"/>
-      <c r="GL1" s="107"/>
-      <c r="GM1" s="107"/>
-      <c r="GN1" s="107"/>
-      <c r="GO1" s="107"/>
-      <c r="GP1" s="107"/>
-      <c r="GQ1" s="107"/>
-      <c r="GR1" s="107"/>
-      <c r="GS1" s="107"/>
-      <c r="GT1" s="107"/>
-      <c r="GU1" s="107"/>
-      <c r="GV1" s="108"/>
-    </row>
-    <row r="2" spans="18:204" x14ac:dyDescent="0.25">
-      <c r="S2" s="109">
+      <c r="EN1" s="104"/>
+      <c r="EO1" s="104"/>
+      <c r="EP1" s="104"/>
+      <c r="EQ1" s="104"/>
+      <c r="ER1" s="104"/>
+      <c r="ES1" s="104"/>
+      <c r="ET1" s="104"/>
+      <c r="EU1" s="104"/>
+      <c r="EV1" s="104"/>
+      <c r="EW1" s="104"/>
+      <c r="EX1" s="104"/>
+      <c r="EY1" s="104"/>
+      <c r="EZ1" s="104"/>
+      <c r="FA1" s="104"/>
+      <c r="FB1" s="104"/>
+      <c r="FC1" s="104"/>
+      <c r="FD1" s="104"/>
+      <c r="FE1" s="104"/>
+      <c r="FF1" s="104"/>
+      <c r="FG1" s="104"/>
+      <c r="FH1" s="104"/>
+      <c r="FI1" s="104"/>
+      <c r="FJ1" s="104"/>
+      <c r="FK1" s="104"/>
+      <c r="FL1" s="104"/>
+      <c r="FM1" s="104"/>
+      <c r="FN1" s="104"/>
+      <c r="FO1" s="104"/>
+      <c r="FP1" s="104"/>
+      <c r="FQ1" s="104"/>
+      <c r="FR1" s="104"/>
+      <c r="FS1" s="104"/>
+      <c r="FT1" s="104"/>
+      <c r="FU1" s="104"/>
+      <c r="FV1" s="104"/>
+      <c r="FW1" s="104"/>
+      <c r="FX1" s="104"/>
+      <c r="FY1" s="104"/>
+      <c r="FZ1" s="104"/>
+      <c r="GA1" s="104"/>
+      <c r="GB1" s="104"/>
+      <c r="GC1" s="104"/>
+      <c r="GD1" s="104"/>
+      <c r="GE1" s="104"/>
+      <c r="GF1" s="104"/>
+      <c r="GG1" s="104"/>
+      <c r="GH1" s="104"/>
+      <c r="GI1" s="104"/>
+      <c r="GJ1" s="104"/>
+      <c r="GK1" s="104"/>
+      <c r="GL1" s="104"/>
+      <c r="GM1" s="104"/>
+      <c r="GN1" s="104"/>
+      <c r="GO1" s="104"/>
+      <c r="GP1" s="104"/>
+      <c r="GQ1" s="104"/>
+      <c r="GR1" s="104"/>
+      <c r="GS1" s="104"/>
+      <c r="GT1" s="104"/>
+      <c r="GU1" s="104"/>
+      <c r="GV1" s="105"/>
+    </row>
+    <row r="2" spans="18:204" x14ac:dyDescent="0.3">
+      <c r="S2" s="106">
         <v>1</v>
       </c>
       <c r="T2" s="97"/>
@@ -8477,14 +8477,14 @@
         <v>2</v>
       </c>
       <c r="V2" s="97"/>
-      <c r="W2" s="98">
+      <c r="W2" s="107">
         <v>3</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="98">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="107">
         <v>4</v>
       </c>
-      <c r="Z2" s="79"/>
+      <c r="Z2" s="88"/>
       <c r="AA2" s="96">
         <v>5</v>
       </c>
@@ -8505,14 +8505,14 @@
         <v>9</v>
       </c>
       <c r="AJ2" s="97"/>
-      <c r="AK2" s="98">
+      <c r="AK2" s="107">
         <v>10</v>
       </c>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="98">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="107">
         <v>11</v>
       </c>
-      <c r="AN2" s="79"/>
+      <c r="AN2" s="88"/>
       <c r="AO2" s="96">
         <v>12</v>
       </c>
@@ -8533,14 +8533,14 @@
         <v>16</v>
       </c>
       <c r="AX2" s="97"/>
-      <c r="AY2" s="98">
+      <c r="AY2" s="107">
         <v>17</v>
       </c>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="98">
-        <v>18</v>
-      </c>
-      <c r="BB2" s="79"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="107">
+        <v>18</v>
+      </c>
+      <c r="BB2" s="88"/>
       <c r="BC2" s="96">
         <v>19</v>
       </c>
@@ -8561,14 +8561,14 @@
         <v>23</v>
       </c>
       <c r="BL2" s="97"/>
-      <c r="BM2" s="98">
+      <c r="BM2" s="107">
         <v>24</v>
       </c>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="98">
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="107">
         <v>25</v>
       </c>
-      <c r="BP2" s="79"/>
+      <c r="BP2" s="88"/>
       <c r="BQ2" s="96">
         <v>26</v>
       </c>
@@ -8589,14 +8589,14 @@
         <v>30</v>
       </c>
       <c r="BZ2" s="97"/>
-      <c r="CA2" s="98">
+      <c r="CA2" s="107">
         <v>31</v>
       </c>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="99">
+      <c r="CB2" s="108"/>
+      <c r="CC2" s="109">
         <v>1</v>
       </c>
-      <c r="CD2" s="79"/>
+      <c r="CD2" s="88"/>
       <c r="CE2" s="96">
         <v>2</v>
       </c>
@@ -8617,14 +8617,14 @@
         <v>6</v>
       </c>
       <c r="CN2" s="97"/>
-      <c r="CO2" s="98">
+      <c r="CO2" s="107">
         <v>7</v>
       </c>
-      <c r="CP2" s="79"/>
-      <c r="CQ2" s="98">
+      <c r="CP2" s="88"/>
+      <c r="CQ2" s="107">
         <v>8</v>
       </c>
-      <c r="CR2" s="79"/>
+      <c r="CR2" s="88"/>
       <c r="CS2" s="96">
         <v>9</v>
       </c>
@@ -8645,14 +8645,14 @@
         <v>13</v>
       </c>
       <c r="DB2" s="97"/>
-      <c r="DC2" s="98">
+      <c r="DC2" s="107">
         <v>14</v>
       </c>
-      <c r="DD2" s="79"/>
-      <c r="DE2" s="98">
+      <c r="DD2" s="88"/>
+      <c r="DE2" s="107">
         <v>15</v>
       </c>
-      <c r="DF2" s="79"/>
+      <c r="DF2" s="88"/>
       <c r="DG2" s="96">
         <v>16</v>
       </c>
@@ -8673,14 +8673,14 @@
         <v>20</v>
       </c>
       <c r="DP2" s="97"/>
-      <c r="DQ2" s="98">
+      <c r="DQ2" s="107">
         <v>21</v>
       </c>
-      <c r="DR2" s="79"/>
-      <c r="DS2" s="98">
+      <c r="DR2" s="88"/>
+      <c r="DS2" s="107">
         <v>22</v>
       </c>
-      <c r="DT2" s="79"/>
+      <c r="DT2" s="88"/>
       <c r="DU2" s="96">
         <v>23</v>
       </c>
@@ -8701,14 +8701,14 @@
         <v>27</v>
       </c>
       <c r="ED2" s="97"/>
-      <c r="EE2" s="98">
+      <c r="EE2" s="107">
         <v>28</v>
       </c>
-      <c r="EF2" s="79"/>
-      <c r="EG2" s="98">
+      <c r="EF2" s="88"/>
+      <c r="EG2" s="107">
         <v>29</v>
       </c>
-      <c r="EH2" s="79"/>
+      <c r="EH2" s="88"/>
       <c r="EI2" s="96">
         <v>30</v>
       </c>
@@ -8729,14 +8729,14 @@
         <v>3</v>
       </c>
       <c r="ER2" s="97"/>
-      <c r="ES2" s="98">
+      <c r="ES2" s="107">
         <v>4</v>
       </c>
-      <c r="ET2" s="79"/>
-      <c r="EU2" s="98">
+      <c r="ET2" s="88"/>
+      <c r="EU2" s="107">
         <v>5</v>
       </c>
-      <c r="EV2" s="79"/>
+      <c r="EV2" s="88"/>
       <c r="EW2" s="96">
         <v>6</v>
       </c>
@@ -8753,14 +8753,14 @@
         <v>9</v>
       </c>
       <c r="FD2" s="97"/>
-      <c r="FE2" s="98">
+      <c r="FE2" s="107">
         <v>10</v>
       </c>
-      <c r="FF2" s="79"/>
-      <c r="FG2" s="98">
+      <c r="FF2" s="88"/>
+      <c r="FG2" s="107">
         <v>11</v>
       </c>
-      <c r="FH2" s="79"/>
+      <c r="FH2" s="88"/>
       <c r="FI2" s="96">
         <v>12</v>
       </c>
@@ -8781,14 +8781,14 @@
         <v>16</v>
       </c>
       <c r="FR2" s="97"/>
-      <c r="FS2" s="98">
+      <c r="FS2" s="107">
         <v>17</v>
       </c>
-      <c r="FT2" s="79"/>
-      <c r="FU2" s="98">
-        <v>18</v>
-      </c>
-      <c r="FV2" s="79"/>
+      <c r="FT2" s="88"/>
+      <c r="FU2" s="107">
+        <v>18</v>
+      </c>
+      <c r="FV2" s="88"/>
       <c r="FW2" s="96">
         <v>19</v>
       </c>
@@ -8809,14 +8809,14 @@
         <v>23</v>
       </c>
       <c r="GF2" s="97"/>
-      <c r="GG2" s="98">
+      <c r="GG2" s="107">
         <v>24</v>
       </c>
-      <c r="GH2" s="79"/>
-      <c r="GI2" s="98">
+      <c r="GH2" s="88"/>
+      <c r="GI2" s="107">
         <v>25</v>
       </c>
-      <c r="GJ2" s="79"/>
+      <c r="GJ2" s="88"/>
       <c r="GK2" s="96">
         <v>26</v>
       </c>
@@ -8837,12 +8837,12 @@
         <v>30</v>
       </c>
       <c r="GT2" s="97"/>
-      <c r="GU2" s="98">
+      <c r="GU2" s="107">
         <v>31</v>
       </c>
-      <c r="GV2" s="79"/>
-    </row>
-    <row r="3" spans="18:204" x14ac:dyDescent="0.25">
+      <c r="GV2" s="88"/>
+    </row>
+    <row r="3" spans="18:204" x14ac:dyDescent="0.3">
       <c r="S3" s="17" t="s">
         <v>78</v>
       </c>
@@ -9402,68 +9402,148 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="4" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R4" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="5" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R5" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="6" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="7" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R7" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="8" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R8" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="9" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R9" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="10" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R10" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="11" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="12" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R12" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="13" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="18:204" x14ac:dyDescent="0.25">
+    <row r="14" spans="18:204" x14ac:dyDescent="0.3">
       <c r="R14" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="18:204" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="18:204" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R15" s="22" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="GS2:GT2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="GG2:GH2"/>
+    <mergeCell ref="GI2:GJ2"/>
+    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:GP2"/>
+    <mergeCell ref="GQ2:GR2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="FI2:FJ2"/>
+    <mergeCell ref="FK2:FL2"/>
+    <mergeCell ref="FM2:FN2"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FQ2:FR2"/>
+    <mergeCell ref="FS2:FT2"/>
+    <mergeCell ref="FU2:FV2"/>
+    <mergeCell ref="FW2:FX2"/>
+    <mergeCell ref="FY2:FZ2"/>
+    <mergeCell ref="GA2:GB2"/>
+    <mergeCell ref="GC2:GD2"/>
+    <mergeCell ref="FG2:FH2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="EM2:EN2"/>
+    <mergeCell ref="EO2:EP2"/>
+    <mergeCell ref="EQ2:ER2"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="EU2:EV2"/>
+    <mergeCell ref="EW2:EX2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FB2"/>
+    <mergeCell ref="FC2:FD2"/>
+    <mergeCell ref="FE2:FF2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="DW2:DX2"/>
+    <mergeCell ref="DY2:DZ2"/>
+    <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="EC2:ED2"/>
+    <mergeCell ref="EE2:EF2"/>
+    <mergeCell ref="EG2:EH2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="S1:CB1"/>
     <mergeCell ref="CC1:EL1"/>
@@ -9480,86 +9560,6 @@
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EE2:EF2"/>
-    <mergeCell ref="EG2:EH2"/>
-    <mergeCell ref="FG2:FH2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="EM2:EN2"/>
-    <mergeCell ref="EO2:EP2"/>
-    <mergeCell ref="EQ2:ER2"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="EU2:EV2"/>
-    <mergeCell ref="EW2:EX2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FB2"/>
-    <mergeCell ref="FC2:FD2"/>
-    <mergeCell ref="FE2:FF2"/>
-    <mergeCell ref="GE2:GF2"/>
-    <mergeCell ref="FI2:FJ2"/>
-    <mergeCell ref="FK2:FL2"/>
-    <mergeCell ref="FM2:FN2"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FQ2:FR2"/>
-    <mergeCell ref="FS2:FT2"/>
-    <mergeCell ref="FU2:FV2"/>
-    <mergeCell ref="FW2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GB2"/>
-    <mergeCell ref="GC2:GD2"/>
-    <mergeCell ref="GS2:GT2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="GG2:GH2"/>
-    <mergeCell ref="GI2:GJ2"/>
-    <mergeCell ref="GK2:GL2"/>
-    <mergeCell ref="GM2:GN2"/>
-    <mergeCell ref="GO2:GP2"/>
-    <mergeCell ref="GQ2:GR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9575,79 +9575,79 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" s="30"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="93"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="59"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92" t="s">
+      <c r="K2" s="94"/>
+      <c r="L2" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="94"/>
+      <c r="T2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="93"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U2" s="95"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
         <v>114</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="59">
         <v>1</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="59">
         <v>2</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="59">
         <v>3</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="59">
         <v>4</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="59">
         <v>5</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="59">
         <v>6</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="59">
         <v>7</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="59">
         <v>8</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="59">
         <v>9</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="59">
         <v>10</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="59">
         <v>11</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -10185,72 +10185,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="95"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="59"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92" t="s">
+      <c r="G20" s="94"/>
+      <c r="H20" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92" t="s">
+      <c r="I20" s="94"/>
+      <c r="J20" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92" t="s">
+      <c r="K20" s="94"/>
+      <c r="L20" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92" t="s">
+      <c r="M20" s="94"/>
+      <c r="N20" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92" t="s">
+      <c r="O20" s="94"/>
+      <c r="P20" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92" t="s">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92" t="s">
+      <c r="S20" s="94"/>
+      <c r="T20" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U20" s="93"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U20" s="95"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="59" t="s">
         <v>114</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="59">
         <v>1</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="59">
         <v>2</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="59">
         <v>3</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="59">
         <v>4</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="59">
         <v>5</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="59">
         <v>6</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="59">
         <v>7</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="59">
         <v>8</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="59">
         <v>9</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="59">
         <v>10</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="59">
         <v>11</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27">
         <v>12</v>
       </c>
@@ -10788,72 +10788,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="95"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="93"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="59"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92" t="s">
+      <c r="E38" s="94"/>
+      <c r="F38" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92" t="s">
+      <c r="G38" s="94"/>
+      <c r="H38" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92" t="s">
+      <c r="I38" s="94"/>
+      <c r="J38" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92" t="s">
+      <c r="K38" s="94"/>
+      <c r="L38" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92" t="s">
+      <c r="M38" s="94"/>
+      <c r="N38" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92" t="s">
+      <c r="O38" s="94"/>
+      <c r="P38" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92" t="s">
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92" t="s">
+      <c r="S38" s="94"/>
+      <c r="T38" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="93"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U38" s="95"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="59" t="s">
         <v>114</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="59">
         <v>1</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="59">
         <v>2</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="59">
         <v>3</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="59">
         <v>4</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="59">
         <v>5</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="59">
         <v>6</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="59">
         <v>7</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="59">
         <v>8</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="59">
         <v>9</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="59">
         <v>10</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="59">
         <v>11</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27">
         <v>12</v>
       </c>
@@ -11393,6 +11393,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D37:U37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -11403,26 +11423,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="D37:U37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11434,540 +11434,540 @@
   <dimension ref="A1:JL78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="66.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" style="4" customWidth="1"/>
-    <col min="15" max="18" width="12.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" style="4" customWidth="1"/>
+    <col min="15" max="18" width="12.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="166" max="166" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="2.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="2.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="2" style="4" customWidth="1"/>
-    <col min="189" max="189" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="2" style="4" customWidth="1"/>
-    <col min="203" max="203" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="214" max="214" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="218" max="218" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="226" max="226" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="230" max="230" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="238" max="238" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="242" max="242" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="246" max="246" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="248" max="248" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="254" max="254" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="2.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="2.85546875" style="11" customWidth="1"/>
+    <col min="263" max="263" width="2.88671875" style="11" customWidth="1"/>
     <col min="264" max="264" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="268" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="270" max="270" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="2.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="2.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="2" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.3">
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="80">
+      <c r="S1" s="75">
         <v>44378</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="83">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="76"/>
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BV1" s="76"/>
+      <c r="BW1" s="76"/>
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="77"/>
+      <c r="CC1" s="78">
         <v>44409</v>
       </c>
-      <c r="CD1" s="84"/>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
-      <c r="CI1" s="84"/>
-      <c r="CJ1" s="84"/>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
-      <c r="CN1" s="84"/>
-      <c r="CO1" s="84"/>
-      <c r="CP1" s="84"/>
-      <c r="CQ1" s="84"/>
-      <c r="CR1" s="84"/>
-      <c r="CS1" s="84"/>
-      <c r="CT1" s="84"/>
-      <c r="CU1" s="84"/>
-      <c r="CV1" s="84"/>
-      <c r="CW1" s="84"/>
-      <c r="CX1" s="84"/>
-      <c r="CY1" s="84"/>
-      <c r="CZ1" s="84"/>
-      <c r="DA1" s="84"/>
-      <c r="DB1" s="84"/>
-      <c r="DC1" s="84"/>
-      <c r="DD1" s="84"/>
-      <c r="DE1" s="84"/>
-      <c r="DF1" s="84"/>
-      <c r="DG1" s="84"/>
-      <c r="DH1" s="84"/>
-      <c r="DI1" s="84"/>
-      <c r="DJ1" s="84"/>
-      <c r="DK1" s="84"/>
-      <c r="DL1" s="84"/>
-      <c r="DM1" s="84"/>
-      <c r="DN1" s="84"/>
-      <c r="DO1" s="84"/>
-      <c r="DP1" s="84"/>
-      <c r="DQ1" s="84"/>
-      <c r="DR1" s="84"/>
-      <c r="DS1" s="84"/>
-      <c r="DT1" s="84"/>
-      <c r="DU1" s="84"/>
-      <c r="DV1" s="84"/>
-      <c r="DW1" s="84"/>
-      <c r="DX1" s="84"/>
-      <c r="DY1" s="84"/>
-      <c r="DZ1" s="84"/>
-      <c r="EA1" s="84"/>
-      <c r="EB1" s="84"/>
-      <c r="EC1" s="84"/>
-      <c r="ED1" s="84"/>
-      <c r="EE1" s="84"/>
-      <c r="EF1" s="84"/>
-      <c r="EG1" s="84"/>
-      <c r="EH1" s="84"/>
-      <c r="EI1" s="84"/>
-      <c r="EJ1" s="84"/>
-      <c r="EK1" s="84"/>
-      <c r="EL1" s="84"/>
-      <c r="EM1" s="85">
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="79"/>
+      <c r="CG1" s="79"/>
+      <c r="CH1" s="79"/>
+      <c r="CI1" s="79"/>
+      <c r="CJ1" s="79"/>
+      <c r="CK1" s="79"/>
+      <c r="CL1" s="79"/>
+      <c r="CM1" s="79"/>
+      <c r="CN1" s="79"/>
+      <c r="CO1" s="79"/>
+      <c r="CP1" s="79"/>
+      <c r="CQ1" s="79"/>
+      <c r="CR1" s="79"/>
+      <c r="CS1" s="79"/>
+      <c r="CT1" s="79"/>
+      <c r="CU1" s="79"/>
+      <c r="CV1" s="79"/>
+      <c r="CW1" s="79"/>
+      <c r="CX1" s="79"/>
+      <c r="CY1" s="79"/>
+      <c r="CZ1" s="79"/>
+      <c r="DA1" s="79"/>
+      <c r="DB1" s="79"/>
+      <c r="DC1" s="79"/>
+      <c r="DD1" s="79"/>
+      <c r="DE1" s="79"/>
+      <c r="DF1" s="79"/>
+      <c r="DG1" s="79"/>
+      <c r="DH1" s="79"/>
+      <c r="DI1" s="79"/>
+      <c r="DJ1" s="79"/>
+      <c r="DK1" s="79"/>
+      <c r="DL1" s="79"/>
+      <c r="DM1" s="79"/>
+      <c r="DN1" s="79"/>
+      <c r="DO1" s="79"/>
+      <c r="DP1" s="79"/>
+      <c r="DQ1" s="79"/>
+      <c r="DR1" s="79"/>
+      <c r="DS1" s="79"/>
+      <c r="DT1" s="79"/>
+      <c r="DU1" s="79"/>
+      <c r="DV1" s="79"/>
+      <c r="DW1" s="79"/>
+      <c r="DX1" s="79"/>
+      <c r="DY1" s="79"/>
+      <c r="DZ1" s="79"/>
+      <c r="EA1" s="79"/>
+      <c r="EB1" s="79"/>
+      <c r="EC1" s="79"/>
+      <c r="ED1" s="79"/>
+      <c r="EE1" s="79"/>
+      <c r="EF1" s="79"/>
+      <c r="EG1" s="79"/>
+      <c r="EH1" s="79"/>
+      <c r="EI1" s="79"/>
+      <c r="EJ1" s="79"/>
+      <c r="EK1" s="79"/>
+      <c r="EL1" s="79"/>
+      <c r="EM1" s="80">
         <v>44440</v>
       </c>
-      <c r="EN1" s="86"/>
-      <c r="EO1" s="86"/>
-      <c r="EP1" s="86"/>
-      <c r="EQ1" s="86"/>
-      <c r="ER1" s="86"/>
-      <c r="ES1" s="86"/>
-      <c r="ET1" s="86"/>
-      <c r="EU1" s="86"/>
-      <c r="EV1" s="86"/>
-      <c r="EW1" s="86"/>
-      <c r="EX1" s="86"/>
-      <c r="EY1" s="86"/>
-      <c r="EZ1" s="86"/>
-      <c r="FA1" s="86"/>
-      <c r="FB1" s="86"/>
-      <c r="FC1" s="86"/>
-      <c r="FD1" s="86"/>
-      <c r="FE1" s="86"/>
-      <c r="FF1" s="86"/>
-      <c r="FG1" s="86"/>
-      <c r="FH1" s="86"/>
-      <c r="FI1" s="86"/>
-      <c r="FJ1" s="86"/>
-      <c r="FK1" s="86"/>
-      <c r="FL1" s="86"/>
-      <c r="FM1" s="86"/>
-      <c r="FN1" s="86"/>
-      <c r="FO1" s="86"/>
-      <c r="FP1" s="86"/>
-      <c r="FQ1" s="86"/>
-      <c r="FR1" s="86"/>
-      <c r="FS1" s="86"/>
-      <c r="FT1" s="86"/>
-      <c r="FU1" s="86"/>
-      <c r="FV1" s="86"/>
-      <c r="FW1" s="86"/>
-      <c r="FX1" s="86"/>
-      <c r="FY1" s="86"/>
-      <c r="FZ1" s="86"/>
-      <c r="GA1" s="86"/>
-      <c r="GB1" s="86"/>
-      <c r="GC1" s="86"/>
-      <c r="GD1" s="86"/>
-      <c r="GE1" s="86"/>
-      <c r="GF1" s="86"/>
-      <c r="GG1" s="86"/>
-      <c r="GH1" s="86"/>
-      <c r="GI1" s="86"/>
-      <c r="GJ1" s="86"/>
-      <c r="GK1" s="86"/>
-      <c r="GL1" s="86"/>
-      <c r="GM1" s="86"/>
-      <c r="GN1" s="86"/>
-      <c r="GO1" s="86"/>
-      <c r="GP1" s="86"/>
-      <c r="GQ1" s="86"/>
-      <c r="GR1" s="86"/>
-      <c r="GS1" s="86"/>
-      <c r="GT1" s="86"/>
-      <c r="GU1" s="87">
+      <c r="EN1" s="81"/>
+      <c r="EO1" s="81"/>
+      <c r="EP1" s="81"/>
+      <c r="EQ1" s="81"/>
+      <c r="ER1" s="81"/>
+      <c r="ES1" s="81"/>
+      <c r="ET1" s="81"/>
+      <c r="EU1" s="81"/>
+      <c r="EV1" s="81"/>
+      <c r="EW1" s="81"/>
+      <c r="EX1" s="81"/>
+      <c r="EY1" s="81"/>
+      <c r="EZ1" s="81"/>
+      <c r="FA1" s="81"/>
+      <c r="FB1" s="81"/>
+      <c r="FC1" s="81"/>
+      <c r="FD1" s="81"/>
+      <c r="FE1" s="81"/>
+      <c r="FF1" s="81"/>
+      <c r="FG1" s="81"/>
+      <c r="FH1" s="81"/>
+      <c r="FI1" s="81"/>
+      <c r="FJ1" s="81"/>
+      <c r="FK1" s="81"/>
+      <c r="FL1" s="81"/>
+      <c r="FM1" s="81"/>
+      <c r="FN1" s="81"/>
+      <c r="FO1" s="81"/>
+      <c r="FP1" s="81"/>
+      <c r="FQ1" s="81"/>
+      <c r="FR1" s="81"/>
+      <c r="FS1" s="81"/>
+      <c r="FT1" s="81"/>
+      <c r="FU1" s="81"/>
+      <c r="FV1" s="81"/>
+      <c r="FW1" s="81"/>
+      <c r="FX1" s="81"/>
+      <c r="FY1" s="81"/>
+      <c r="FZ1" s="81"/>
+      <c r="GA1" s="81"/>
+      <c r="GB1" s="81"/>
+      <c r="GC1" s="81"/>
+      <c r="GD1" s="81"/>
+      <c r="GE1" s="81"/>
+      <c r="GF1" s="81"/>
+      <c r="GG1" s="81"/>
+      <c r="GH1" s="81"/>
+      <c r="GI1" s="81"/>
+      <c r="GJ1" s="81"/>
+      <c r="GK1" s="81"/>
+      <c r="GL1" s="81"/>
+      <c r="GM1" s="81"/>
+      <c r="GN1" s="81"/>
+      <c r="GO1" s="81"/>
+      <c r="GP1" s="81"/>
+      <c r="GQ1" s="81"/>
+      <c r="GR1" s="81"/>
+      <c r="GS1" s="81"/>
+      <c r="GT1" s="81"/>
+      <c r="GU1" s="82">
         <v>44470</v>
       </c>
-      <c r="GV1" s="88"/>
-      <c r="GW1" s="88"/>
-      <c r="GX1" s="88"/>
-      <c r="GY1" s="88"/>
-      <c r="GZ1" s="88"/>
-      <c r="HA1" s="88"/>
-      <c r="HB1" s="88"/>
-      <c r="HC1" s="88"/>
-      <c r="HD1" s="88"/>
-      <c r="HE1" s="88"/>
-      <c r="HF1" s="88"/>
-      <c r="HG1" s="88"/>
-      <c r="HH1" s="88"/>
-      <c r="HI1" s="88"/>
-      <c r="HJ1" s="88"/>
-      <c r="HK1" s="88"/>
-      <c r="HL1" s="88"/>
-      <c r="HM1" s="88"/>
-      <c r="HN1" s="88"/>
-      <c r="HO1" s="88"/>
-      <c r="HP1" s="88"/>
-      <c r="HQ1" s="88"/>
-      <c r="HR1" s="88"/>
-      <c r="HS1" s="88"/>
-      <c r="HT1" s="88"/>
-      <c r="HU1" s="88"/>
-      <c r="HV1" s="88"/>
-      <c r="HW1" s="88"/>
-      <c r="HX1" s="88"/>
-      <c r="HY1" s="88"/>
-      <c r="HZ1" s="88"/>
-      <c r="IA1" s="88"/>
-      <c r="IB1" s="88"/>
-      <c r="IC1" s="88"/>
-      <c r="ID1" s="88"/>
-      <c r="IE1" s="88"/>
-      <c r="IF1" s="88"/>
-      <c r="IG1" s="88"/>
-      <c r="IH1" s="88"/>
-      <c r="II1" s="88"/>
-      <c r="IJ1" s="88"/>
-      <c r="IK1" s="88"/>
-      <c r="IL1" s="88"/>
-      <c r="IM1" s="88"/>
-      <c r="IN1" s="88"/>
-      <c r="IO1" s="88"/>
-      <c r="IP1" s="88"/>
-      <c r="IQ1" s="88"/>
-      <c r="IR1" s="88"/>
-      <c r="IS1" s="88"/>
-      <c r="IT1" s="88"/>
-      <c r="IU1" s="88"/>
-      <c r="IV1" s="88"/>
-      <c r="IW1" s="88"/>
-      <c r="IX1" s="88"/>
-      <c r="IY1" s="88"/>
-      <c r="IZ1" s="88"/>
-      <c r="JA1" s="88"/>
-      <c r="JB1" s="88"/>
-      <c r="JC1" s="88"/>
-      <c r="JD1" s="88"/>
+      <c r="GV1" s="83"/>
+      <c r="GW1" s="83"/>
+      <c r="GX1" s="83"/>
+      <c r="GY1" s="83"/>
+      <c r="GZ1" s="83"/>
+      <c r="HA1" s="83"/>
+      <c r="HB1" s="83"/>
+      <c r="HC1" s="83"/>
+      <c r="HD1" s="83"/>
+      <c r="HE1" s="83"/>
+      <c r="HF1" s="83"/>
+      <c r="HG1" s="83"/>
+      <c r="HH1" s="83"/>
+      <c r="HI1" s="83"/>
+      <c r="HJ1" s="83"/>
+      <c r="HK1" s="83"/>
+      <c r="HL1" s="83"/>
+      <c r="HM1" s="83"/>
+      <c r="HN1" s="83"/>
+      <c r="HO1" s="83"/>
+      <c r="HP1" s="83"/>
+      <c r="HQ1" s="83"/>
+      <c r="HR1" s="83"/>
+      <c r="HS1" s="83"/>
+      <c r="HT1" s="83"/>
+      <c r="HU1" s="83"/>
+      <c r="HV1" s="83"/>
+      <c r="HW1" s="83"/>
+      <c r="HX1" s="83"/>
+      <c r="HY1" s="83"/>
+      <c r="HZ1" s="83"/>
+      <c r="IA1" s="83"/>
+      <c r="IB1" s="83"/>
+      <c r="IC1" s="83"/>
+      <c r="ID1" s="83"/>
+      <c r="IE1" s="83"/>
+      <c r="IF1" s="83"/>
+      <c r="IG1" s="83"/>
+      <c r="IH1" s="83"/>
+      <c r="II1" s="83"/>
+      <c r="IJ1" s="83"/>
+      <c r="IK1" s="83"/>
+      <c r="IL1" s="83"/>
+      <c r="IM1" s="83"/>
+      <c r="IN1" s="83"/>
+      <c r="IO1" s="83"/>
+      <c r="IP1" s="83"/>
+      <c r="IQ1" s="83"/>
+      <c r="IR1" s="83"/>
+      <c r="IS1" s="83"/>
+      <c r="IT1" s="83"/>
+      <c r="IU1" s="83"/>
+      <c r="IV1" s="83"/>
+      <c r="IW1" s="83"/>
+      <c r="IX1" s="83"/>
+      <c r="IY1" s="83"/>
+      <c r="IZ1" s="83"/>
+      <c r="JA1" s="83"/>
+      <c r="JB1" s="83"/>
+      <c r="JC1" s="83"/>
+      <c r="JD1" s="83"/>
       <c r="JE1"/>
       <c r="JF1"/>
       <c r="JG1"/>
@@ -11977,7 +11977,7 @@
       <c r="JK1"/>
       <c r="JL1"/>
     </row>
-    <row r="2" spans="1:272" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="9"/>
       <c r="C2" s="5"/>
@@ -11996,516 +11996,516 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="89">
+      <c r="S2" s="84">
         <v>1</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77">
+      <c r="T2" s="85"/>
+      <c r="U2" s="85">
         <v>2</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="76">
+      <c r="V2" s="85"/>
+      <c r="W2" s="86">
         <v>3</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86">
         <v>4</v>
       </c>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="85">
         <v>5</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85">
         <v>6</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77">
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85">
         <v>7</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85">
         <v>8</v>
       </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85">
         <v>9</v>
       </c>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="76">
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="86">
         <v>10</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76">
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86">
         <v>11</v>
       </c>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="77">
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="85">
         <v>12</v>
       </c>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77">
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85">
         <v>13</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77">
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85">
         <v>14</v>
       </c>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77">
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85">
         <v>15</v>
       </c>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77">
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85">
         <v>16</v>
       </c>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="76">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="86">
         <v>17</v>
       </c>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76">
-        <v>18</v>
-      </c>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="77">
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86">
+        <v>18</v>
+      </c>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="85">
         <v>19</v>
       </c>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77">
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85">
         <v>20</v>
       </c>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77">
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85">
         <v>21</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77">
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="85">
         <v>22</v>
       </c>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77">
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85">
         <v>23</v>
       </c>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="76">
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="86">
         <v>24</v>
       </c>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76">
+      <c r="BN2" s="86"/>
+      <c r="BO2" s="86">
         <v>25</v>
       </c>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="77">
+      <c r="BP2" s="86"/>
+      <c r="BQ2" s="85">
         <v>26</v>
       </c>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77">
+      <c r="BR2" s="85"/>
+      <c r="BS2" s="85">
         <v>27</v>
       </c>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77">
+      <c r="BT2" s="85"/>
+      <c r="BU2" s="85">
         <v>28</v>
       </c>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77">
+      <c r="BV2" s="85"/>
+      <c r="BW2" s="85">
         <v>29</v>
       </c>
-      <c r="BX2" s="77"/>
-      <c r="BY2" s="77">
+      <c r="BX2" s="85"/>
+      <c r="BY2" s="85">
         <v>30</v>
       </c>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="76">
+      <c r="BZ2" s="85"/>
+      <c r="CA2" s="86">
         <v>31</v>
       </c>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="79">
+      <c r="CB2" s="87"/>
+      <c r="CC2" s="88">
         <v>1</v>
       </c>
-      <c r="CD2" s="76"/>
-      <c r="CE2" s="77">
+      <c r="CD2" s="86"/>
+      <c r="CE2" s="85">
         <v>2</v>
       </c>
-      <c r="CF2" s="77"/>
-      <c r="CG2" s="77">
+      <c r="CF2" s="85"/>
+      <c r="CG2" s="85">
         <v>3</v>
       </c>
-      <c r="CH2" s="77"/>
-      <c r="CI2" s="77">
+      <c r="CH2" s="85"/>
+      <c r="CI2" s="85">
         <v>4</v>
       </c>
-      <c r="CJ2" s="77"/>
-      <c r="CK2" s="77">
+      <c r="CJ2" s="85"/>
+      <c r="CK2" s="85">
         <v>5</v>
       </c>
-      <c r="CL2" s="77"/>
-      <c r="CM2" s="77">
+      <c r="CL2" s="85"/>
+      <c r="CM2" s="85">
         <v>6</v>
       </c>
-      <c r="CN2" s="77"/>
-      <c r="CO2" s="76">
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="86">
         <v>7</v>
       </c>
-      <c r="CP2" s="76"/>
-      <c r="CQ2" s="76">
+      <c r="CP2" s="86"/>
+      <c r="CQ2" s="86">
         <v>8</v>
       </c>
-      <c r="CR2" s="76"/>
-      <c r="CS2" s="77">
+      <c r="CR2" s="86"/>
+      <c r="CS2" s="85">
         <v>9</v>
       </c>
-      <c r="CT2" s="77"/>
-      <c r="CU2" s="77">
+      <c r="CT2" s="85"/>
+      <c r="CU2" s="85">
         <v>10</v>
       </c>
-      <c r="CV2" s="77"/>
-      <c r="CW2" s="77">
+      <c r="CV2" s="85"/>
+      <c r="CW2" s="85">
         <v>11</v>
       </c>
-      <c r="CX2" s="77"/>
-      <c r="CY2" s="77">
+      <c r="CX2" s="85"/>
+      <c r="CY2" s="85">
         <v>12</v>
       </c>
-      <c r="CZ2" s="77"/>
-      <c r="DA2" s="77">
+      <c r="CZ2" s="85"/>
+      <c r="DA2" s="85">
         <v>13</v>
       </c>
-      <c r="DB2" s="77"/>
-      <c r="DC2" s="76">
+      <c r="DB2" s="85"/>
+      <c r="DC2" s="86">
         <v>14</v>
       </c>
-      <c r="DD2" s="76"/>
-      <c r="DE2" s="76">
+      <c r="DD2" s="86"/>
+      <c r="DE2" s="86">
         <v>15</v>
       </c>
-      <c r="DF2" s="76"/>
-      <c r="DG2" s="77">
+      <c r="DF2" s="86"/>
+      <c r="DG2" s="85">
         <v>16</v>
       </c>
-      <c r="DH2" s="77"/>
-      <c r="DI2" s="77">
+      <c r="DH2" s="85"/>
+      <c r="DI2" s="85">
         <v>17</v>
       </c>
-      <c r="DJ2" s="77"/>
-      <c r="DK2" s="77">
-        <v>18</v>
-      </c>
-      <c r="DL2" s="77"/>
-      <c r="DM2" s="77">
+      <c r="DJ2" s="85"/>
+      <c r="DK2" s="85">
+        <v>18</v>
+      </c>
+      <c r="DL2" s="85"/>
+      <c r="DM2" s="85">
         <v>19</v>
       </c>
-      <c r="DN2" s="77"/>
-      <c r="DO2" s="77">
+      <c r="DN2" s="85"/>
+      <c r="DO2" s="85">
         <v>20</v>
       </c>
-      <c r="DP2" s="77"/>
-      <c r="DQ2" s="76">
+      <c r="DP2" s="85"/>
+      <c r="DQ2" s="86">
         <v>21</v>
       </c>
-      <c r="DR2" s="76"/>
-      <c r="DS2" s="76">
+      <c r="DR2" s="86"/>
+      <c r="DS2" s="86">
         <v>22</v>
       </c>
-      <c r="DT2" s="76"/>
-      <c r="DU2" s="77">
+      <c r="DT2" s="86"/>
+      <c r="DU2" s="85">
         <v>23</v>
       </c>
-      <c r="DV2" s="77"/>
-      <c r="DW2" s="77">
+      <c r="DV2" s="85"/>
+      <c r="DW2" s="85">
         <v>24</v>
       </c>
-      <c r="DX2" s="77"/>
-      <c r="DY2" s="77">
+      <c r="DX2" s="85"/>
+      <c r="DY2" s="85">
         <v>25</v>
       </c>
-      <c r="DZ2" s="77"/>
-      <c r="EA2" s="77">
+      <c r="DZ2" s="85"/>
+      <c r="EA2" s="85">
         <v>26</v>
       </c>
-      <c r="EB2" s="77"/>
-      <c r="EC2" s="77">
+      <c r="EB2" s="85"/>
+      <c r="EC2" s="85">
         <v>27</v>
       </c>
-      <c r="ED2" s="77"/>
-      <c r="EE2" s="76">
+      <c r="ED2" s="85"/>
+      <c r="EE2" s="86">
         <v>28</v>
       </c>
-      <c r="EF2" s="76"/>
-      <c r="EG2" s="76">
+      <c r="EF2" s="86"/>
+      <c r="EG2" s="86">
         <v>29</v>
       </c>
-      <c r="EH2" s="76"/>
-      <c r="EI2" s="77">
+      <c r="EH2" s="86"/>
+      <c r="EI2" s="85">
         <v>30</v>
       </c>
-      <c r="EJ2" s="77"/>
-      <c r="EK2" s="77">
+      <c r="EJ2" s="85"/>
+      <c r="EK2" s="85">
         <v>31</v>
       </c>
-      <c r="EL2" s="77"/>
-      <c r="EM2" s="77">
+      <c r="EL2" s="85"/>
+      <c r="EM2" s="85">
         <v>1</v>
       </c>
-      <c r="EN2" s="77"/>
-      <c r="EO2" s="77">
+      <c r="EN2" s="85"/>
+      <c r="EO2" s="85">
         <v>2</v>
       </c>
-      <c r="EP2" s="77"/>
-      <c r="EQ2" s="77">
+      <c r="EP2" s="85"/>
+      <c r="EQ2" s="85">
         <v>3</v>
       </c>
-      <c r="ER2" s="77"/>
-      <c r="ES2" s="76">
+      <c r="ER2" s="85"/>
+      <c r="ES2" s="86">
         <v>4</v>
       </c>
-      <c r="ET2" s="76"/>
-      <c r="EU2" s="76">
+      <c r="ET2" s="86"/>
+      <c r="EU2" s="86">
         <v>5</v>
       </c>
-      <c r="EV2" s="76"/>
-      <c r="EW2" s="77">
+      <c r="EV2" s="86"/>
+      <c r="EW2" s="85">
         <v>6</v>
       </c>
-      <c r="EX2" s="77"/>
-      <c r="EY2" s="77">
+      <c r="EX2" s="85"/>
+      <c r="EY2" s="85">
         <v>7</v>
       </c>
-      <c r="EZ2" s="77"/>
-      <c r="FA2" s="77">
+      <c r="EZ2" s="85"/>
+      <c r="FA2" s="85">
         <v>8</v>
       </c>
-      <c r="FB2" s="77"/>
-      <c r="FC2" s="77">
+      <c r="FB2" s="85"/>
+      <c r="FC2" s="85">
         <v>9</v>
       </c>
-      <c r="FD2" s="77"/>
-      <c r="FE2" s="75">
+      <c r="FD2" s="85"/>
+      <c r="FE2" s="89">
         <v>10</v>
       </c>
-      <c r="FF2" s="75"/>
-      <c r="FG2" s="76">
+      <c r="FF2" s="89"/>
+      <c r="FG2" s="86">
         <v>11</v>
       </c>
-      <c r="FH2" s="76"/>
-      <c r="FI2" s="76">
+      <c r="FH2" s="86"/>
+      <c r="FI2" s="86">
         <v>12</v>
       </c>
-      <c r="FJ2" s="76"/>
-      <c r="FK2" s="77">
+      <c r="FJ2" s="86"/>
+      <c r="FK2" s="85">
         <v>13</v>
       </c>
-      <c r="FL2" s="77"/>
-      <c r="FM2" s="77">
+      <c r="FL2" s="85"/>
+      <c r="FM2" s="85">
         <v>14</v>
       </c>
-      <c r="FN2" s="77"/>
-      <c r="FO2" s="77">
+      <c r="FN2" s="85"/>
+      <c r="FO2" s="85">
         <v>15</v>
       </c>
-      <c r="FP2" s="77"/>
-      <c r="FQ2" s="77">
+      <c r="FP2" s="85"/>
+      <c r="FQ2" s="85">
         <v>16</v>
       </c>
-      <c r="FR2" s="77"/>
-      <c r="FS2" s="75">
+      <c r="FR2" s="85"/>
+      <c r="FS2" s="89">
         <v>17</v>
       </c>
-      <c r="FT2" s="75"/>
-      <c r="FU2" s="76">
-        <v>18</v>
-      </c>
-      <c r="FV2" s="76"/>
-      <c r="FW2" s="76">
+      <c r="FT2" s="89"/>
+      <c r="FU2" s="86">
+        <v>18</v>
+      </c>
+      <c r="FV2" s="86"/>
+      <c r="FW2" s="86">
         <v>19</v>
       </c>
-      <c r="FX2" s="76"/>
-      <c r="FY2" s="77">
+      <c r="FX2" s="86"/>
+      <c r="FY2" s="85">
         <v>20</v>
       </c>
-      <c r="FZ2" s="77"/>
-      <c r="GA2" s="77">
+      <c r="FZ2" s="85"/>
+      <c r="GA2" s="85">
         <v>21</v>
       </c>
-      <c r="GB2" s="77"/>
-      <c r="GC2" s="77">
+      <c r="GB2" s="85"/>
+      <c r="GC2" s="85">
         <v>22</v>
       </c>
-      <c r="GD2" s="77"/>
-      <c r="GE2" s="77">
+      <c r="GD2" s="85"/>
+      <c r="GE2" s="85">
         <v>23</v>
       </c>
-      <c r="GF2" s="77"/>
-      <c r="GG2" s="75">
+      <c r="GF2" s="85"/>
+      <c r="GG2" s="89">
         <v>24</v>
       </c>
-      <c r="GH2" s="75"/>
-      <c r="GI2" s="76">
+      <c r="GH2" s="89"/>
+      <c r="GI2" s="86">
         <v>25</v>
       </c>
-      <c r="GJ2" s="76"/>
-      <c r="GK2" s="76">
+      <c r="GJ2" s="86"/>
+      <c r="GK2" s="86">
         <v>26</v>
       </c>
-      <c r="GL2" s="76"/>
-      <c r="GM2" s="77">
+      <c r="GL2" s="86"/>
+      <c r="GM2" s="85">
         <v>27</v>
       </c>
-      <c r="GN2" s="77"/>
-      <c r="GO2" s="77">
+      <c r="GN2" s="85"/>
+      <c r="GO2" s="85">
         <v>28</v>
       </c>
-      <c r="GP2" s="77"/>
-      <c r="GQ2" s="77">
+      <c r="GP2" s="85"/>
+      <c r="GQ2" s="85">
         <v>29</v>
       </c>
-      <c r="GR2" s="77"/>
-      <c r="GS2" s="77">
+      <c r="GR2" s="85"/>
+      <c r="GS2" s="85">
         <v>30</v>
       </c>
-      <c r="GT2" s="77"/>
-      <c r="GU2" s="75">
+      <c r="GT2" s="85"/>
+      <c r="GU2" s="89">
         <v>1</v>
       </c>
-      <c r="GV2" s="75"/>
-      <c r="GW2" s="76">
+      <c r="GV2" s="89"/>
+      <c r="GW2" s="86">
         <v>2</v>
       </c>
-      <c r="GX2" s="76"/>
-      <c r="GY2" s="76">
+      <c r="GX2" s="86"/>
+      <c r="GY2" s="86">
         <v>3</v>
       </c>
-      <c r="GZ2" s="76"/>
-      <c r="HA2" s="76">
+      <c r="GZ2" s="86"/>
+      <c r="HA2" s="86">
         <v>4</v>
       </c>
-      <c r="HB2" s="76"/>
-      <c r="HC2" s="76">
+      <c r="HB2" s="86"/>
+      <c r="HC2" s="86">
         <v>5</v>
       </c>
-      <c r="HD2" s="76"/>
-      <c r="HE2" s="76">
+      <c r="HD2" s="86"/>
+      <c r="HE2" s="86">
         <v>6</v>
       </c>
-      <c r="HF2" s="76"/>
-      <c r="HG2" s="76">
+      <c r="HF2" s="86"/>
+      <c r="HG2" s="86">
         <v>7</v>
       </c>
-      <c r="HH2" s="76"/>
-      <c r="HI2" s="76">
+      <c r="HH2" s="86"/>
+      <c r="HI2" s="86">
         <v>8</v>
       </c>
-      <c r="HJ2" s="76"/>
-      <c r="HK2" s="76">
+      <c r="HJ2" s="86"/>
+      <c r="HK2" s="86">
         <v>9</v>
       </c>
-      <c r="HL2" s="76"/>
-      <c r="HM2" s="76">
+      <c r="HL2" s="86"/>
+      <c r="HM2" s="86">
         <v>10</v>
       </c>
-      <c r="HN2" s="76"/>
-      <c r="HO2" s="75">
+      <c r="HN2" s="86"/>
+      <c r="HO2" s="89">
         <v>11</v>
       </c>
-      <c r="HP2" s="75"/>
-      <c r="HQ2" s="75">
+      <c r="HP2" s="89"/>
+      <c r="HQ2" s="89">
         <v>12</v>
       </c>
-      <c r="HR2" s="75"/>
-      <c r="HS2" s="75">
+      <c r="HR2" s="89"/>
+      <c r="HS2" s="89">
         <v>13</v>
       </c>
-      <c r="HT2" s="75"/>
-      <c r="HU2" s="75">
+      <c r="HT2" s="89"/>
+      <c r="HU2" s="89">
         <v>14</v>
       </c>
-      <c r="HV2" s="75"/>
-      <c r="HW2" s="75">
+      <c r="HV2" s="89"/>
+      <c r="HW2" s="89">
         <v>15</v>
       </c>
-      <c r="HX2" s="75"/>
-      <c r="HY2" s="76">
+      <c r="HX2" s="89"/>
+      <c r="HY2" s="86">
         <v>16</v>
       </c>
-      <c r="HZ2" s="76"/>
-      <c r="IA2" s="76">
+      <c r="HZ2" s="86"/>
+      <c r="IA2" s="86">
         <v>17</v>
       </c>
-      <c r="IB2" s="76"/>
-      <c r="IC2" s="76">
-        <v>18</v>
-      </c>
-      <c r="ID2" s="76"/>
-      <c r="IE2" s="76">
+      <c r="IB2" s="86"/>
+      <c r="IC2" s="86">
+        <v>18</v>
+      </c>
+      <c r="ID2" s="86"/>
+      <c r="IE2" s="86">
         <v>19</v>
       </c>
-      <c r="IF2" s="76"/>
-      <c r="IG2" s="76">
+      <c r="IF2" s="86"/>
+      <c r="IG2" s="86">
         <v>20</v>
       </c>
-      <c r="IH2" s="76"/>
-      <c r="II2" s="76">
+      <c r="IH2" s="86"/>
+      <c r="II2" s="86">
         <v>21</v>
       </c>
-      <c r="IJ2" s="76"/>
-      <c r="IK2" s="75">
+      <c r="IJ2" s="86"/>
+      <c r="IK2" s="89">
         <v>22</v>
       </c>
-      <c r="IL2" s="75"/>
-      <c r="IM2" s="76">
+      <c r="IL2" s="89"/>
+      <c r="IM2" s="86">
         <v>23</v>
       </c>
-      <c r="IN2" s="76"/>
-      <c r="IO2" s="76">
+      <c r="IN2" s="86"/>
+      <c r="IO2" s="86">
         <v>24</v>
       </c>
-      <c r="IP2" s="76"/>
-      <c r="IQ2" s="76">
+      <c r="IP2" s="86"/>
+      <c r="IQ2" s="86">
         <v>25</v>
       </c>
-      <c r="IR2" s="76"/>
-      <c r="IS2" s="76">
+      <c r="IR2" s="86"/>
+      <c r="IS2" s="86">
         <v>26</v>
       </c>
-      <c r="IT2" s="76"/>
-      <c r="IU2" s="76">
+      <c r="IT2" s="86"/>
+      <c r="IU2" s="86">
         <v>27</v>
       </c>
-      <c r="IV2" s="76"/>
-      <c r="IW2" s="76">
+      <c r="IV2" s="86"/>
+      <c r="IW2" s="86">
         <v>28</v>
       </c>
-      <c r="IX2" s="76"/>
-      <c r="IY2" s="75">
+      <c r="IX2" s="86"/>
+      <c r="IY2" s="89">
         <v>29</v>
       </c>
-      <c r="IZ2" s="75"/>
-      <c r="JA2" s="76">
+      <c r="IZ2" s="89"/>
+      <c r="JA2" s="86">
         <v>30</v>
       </c>
-      <c r="JB2" s="76"/>
-      <c r="JC2" s="76">
+      <c r="JB2" s="86"/>
+      <c r="JC2" s="86">
         <v>31</v>
       </c>
-      <c r="JD2" s="76"/>
-      <c r="JE2" s="77">
+      <c r="JD2" s="86"/>
+      <c r="JE2" s="85">
         <v>1</v>
       </c>
-      <c r="JF2" s="77"/>
-      <c r="JG2" s="77">
+      <c r="JF2" s="85"/>
+      <c r="JG2" s="85">
         <v>2</v>
       </c>
-      <c r="JH2" s="77"/>
-      <c r="JI2" s="77">
+      <c r="JH2" s="85"/>
+      <c r="JI2" s="85">
         <v>3</v>
       </c>
-      <c r="JJ2" s="77"/>
-      <c r="JK2" s="75">
+      <c r="JJ2" s="85"/>
+      <c r="JK2" s="89">
         <v>4</v>
       </c>
-      <c r="JL2" s="75"/>
-    </row>
-    <row r="3" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="JL2" s="89"/>
+    </row>
+    <row r="3" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -13401,7 +13401,7 @@
       <c r="EU4" s="11"/>
       <c r="EV4" s="11"/>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -13499,7 +13499,7 @@
       <c r="HO5" s="12"/>
       <c r="HQ5" s="12"/>
     </row>
-    <row r="6" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="EU6" s="11"/>
       <c r="EV6" s="11"/>
     </row>
-    <row r="7" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -13625,7 +13625,7 @@
       <c r="EU7" s="11"/>
       <c r="EV7" s="11"/>
     </row>
-    <row r="8" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="EU8" s="11"/>
       <c r="EV8" s="11"/>
     </row>
-    <row r="9" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="GS9" s="12"/>
       <c r="GU9" s="12"/>
     </row>
-    <row r="10" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -13813,7 +13813,7 @@
       <c r="GM10" s="12"/>
       <c r="GO10" s="12"/>
     </row>
-    <row r="11" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="HG11" s="12"/>
       <c r="HI11" s="12"/>
     </row>
-    <row r="12" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -13996,7 +13996,7 @@
       <c r="II12" s="12"/>
       <c r="IK12" s="12"/>
     </row>
-    <row r="13" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -14074,7 +14074,7 @@
       <c r="FT13" s="12"/>
       <c r="FU13" s="12"/>
     </row>
-    <row r="14" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -14153,7 +14153,7 @@
       <c r="HS14" s="12"/>
       <c r="HU14" s="12"/>
     </row>
-    <row r="15" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>154</v>
       </c>
@@ -14237,7 +14237,7 @@
       <c r="IJ15" s="12"/>
       <c r="IL15" s="12"/>
     </row>
-    <row r="16" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -14401,7 +14401,7 @@
       <c r="HQ17" s="12"/>
       <c r="HS17" s="12"/>
     </row>
-    <row r="18" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -14482,7 +14482,7 @@
       <c r="GS18" s="12"/>
       <c r="GU18" s="12"/>
     </row>
-    <row r="19" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -14551,7 +14551,7 @@
       <c r="HG19" s="12"/>
       <c r="HI19" s="12"/>
     </row>
-    <row r="20" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -14607,7 +14607,7 @@
       <c r="EU20" s="11"/>
       <c r="EV20" s="11"/>
     </row>
-    <row r="21" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -14673,7 +14673,7 @@
       <c r="EU21" s="11"/>
       <c r="EV21" s="11"/>
     </row>
-    <row r="22" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="FQ22" s="68"/>
       <c r="FS22" s="68"/>
     </row>
-    <row r="23" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
@@ -14837,7 +14837,7 @@
       <c r="FY23" s="12"/>
       <c r="GA23" s="12"/>
     </row>
-    <row r="24" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>116</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="FQ24" s="12"/>
       <c r="FS24" s="12"/>
     </row>
-    <row r="25" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="HC27" s="12"/>
       <c r="HE27" s="12"/>
     </row>
-    <row r="28" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -15306,7 +15306,7 @@
       <c r="HQ29" s="12"/>
       <c r="HR29" s="12"/>
     </row>
-    <row r="30" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -15466,7 +15466,7 @@
       <c r="EU31" s="11"/>
       <c r="EV31" s="11"/>
     </row>
-    <row r="32" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:233" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="EY32" s="12"/>
       <c r="FA32" s="12"/>
     </row>
-    <row r="33" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -15587,7 +15587,7 @@
       <c r="EU33" s="11"/>
       <c r="EV33" s="11"/>
     </row>
-    <row r="34" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="FO34" s="12"/>
       <c r="FQ34" s="12"/>
     </row>
-    <row r="35" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
@@ -15795,7 +15795,7 @@
       <c r="GQ36" s="12"/>
       <c r="GS36" s="12"/>
     </row>
-    <row r="37" spans="1:254" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:254" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>68</v>
       </c>
@@ -15854,7 +15854,7 @@
       <c r="EU37" s="11"/>
       <c r="EV37" s="11"/>
     </row>
-    <row r="38" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>34</v>
       </c>
@@ -15917,7 +15917,7 @@
       <c r="HA38" s="12"/>
       <c r="HC38" s="12"/>
     </row>
-    <row r="39" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -15990,7 +15990,7 @@
       <c r="EU39" s="11"/>
       <c r="EV39" s="11"/>
     </row>
-    <row r="40" spans="1:254" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:254" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>95</v>
       </c>
@@ -16063,7 +16063,7 @@
       <c r="EU40" s="11"/>
       <c r="EV40" s="11"/>
     </row>
-    <row r="41" spans="1:254" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:254" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -16134,7 +16134,7 @@
       <c r="FY41" s="12"/>
       <c r="GA41" s="12"/>
     </row>
-    <row r="42" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -16208,7 +16208,7 @@
       <c r="GM42" s="12"/>
       <c r="GO42" s="12"/>
     </row>
-    <row r="43" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -16282,7 +16282,7 @@
       <c r="HA43" s="12"/>
       <c r="HC43" s="12"/>
     </row>
-    <row r="44" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>34</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="EV44" s="11"/>
       <c r="HE44" s="12"/>
     </row>
-    <row r="45" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>34</v>
       </c>
@@ -16409,7 +16409,7 @@
       <c r="HO45" s="12"/>
       <c r="HQ45" s="12"/>
     </row>
-    <row r="46" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
@@ -16484,7 +16484,7 @@
       <c r="IC46" s="12"/>
       <c r="IE46" s="12"/>
     </row>
-    <row r="47" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
@@ -16556,7 +16556,7 @@
       <c r="IQ47" s="12"/>
       <c r="IT47" s="12"/>
     </row>
-    <row r="48" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>59</v>
       </c>
@@ -16622,7 +16622,7 @@
       <c r="HQ48" s="12"/>
       <c r="HS48" s="12"/>
     </row>
-    <row r="49" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
@@ -16724,7 +16724,7 @@
       <c r="II49" s="12"/>
       <c r="IK49" s="12"/>
     </row>
-    <row r="50" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>104</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:258" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:258" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>133</v>
       </c>
@@ -16946,7 +16946,7 @@
       <c r="EU51" s="11"/>
       <c r="EV51" s="11"/>
     </row>
-    <row r="52" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>135</v>
       </c>
@@ -17044,7 +17044,7 @@
       <c r="EU52" s="11"/>
       <c r="EV52" s="11"/>
     </row>
-    <row r="53" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>138</v>
       </c>
@@ -17095,7 +17095,7 @@
       <c r="EU53" s="11"/>
       <c r="EV53" s="11"/>
     </row>
-    <row r="54" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="41" t="s">
         <v>139</v>
       </c>
@@ -17146,7 +17146,7 @@
       <c r="EU54" s="11"/>
       <c r="EV54" s="11"/>
     </row>
-    <row r="55" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>141</v>
       </c>
@@ -17209,7 +17209,7 @@
       <c r="GE55" s="12"/>
       <c r="GG55" s="12"/>
     </row>
-    <row r="56" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>144</v>
       </c>
@@ -17263,7 +17263,7 @@
       <c r="EU56" s="11"/>
       <c r="EV56" s="11"/>
     </row>
-    <row r="57" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>145</v>
       </c>
@@ -17317,7 +17317,7 @@
       <c r="EU57" s="11"/>
       <c r="EV57" s="11"/>
     </row>
-    <row r="58" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>146</v>
       </c>
@@ -17371,7 +17371,7 @@
       <c r="EU58" s="11"/>
       <c r="EV58" s="11"/>
     </row>
-    <row r="59" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="45" t="s">
         <v>149</v>
       </c>
@@ -17435,7 +17435,7 @@
       <c r="HH59" s="49"/>
       <c r="HJ59" s="49"/>
     </row>
-    <row r="60" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>151</v>
       </c>
@@ -17527,7 +17527,7 @@
       </c>
       <c r="HJ60" s="63"/>
     </row>
-    <row r="61" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>18</v>
       </c>
@@ -17586,7 +17586,7 @@
       <c r="IW61" s="12"/>
       <c r="IX61" s="12"/>
     </row>
-    <row r="62" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>18</v>
       </c>
@@ -17648,7 +17648,7 @@
       <c r="IW62" s="12"/>
       <c r="IX62" s="12"/>
     </row>
-    <row r="63" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>156</v>
       </c>
@@ -17707,7 +17707,7 @@
       <c r="FY63" s="12"/>
       <c r="GA63" s="12"/>
     </row>
-    <row r="64" spans="1:258" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:258" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>18</v>
       </c>
@@ -17761,7 +17761,7 @@
       <c r="EV64" s="11"/>
       <c r="GB64" s="12"/>
     </row>
-    <row r="65" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>18</v>
       </c>
@@ -17819,7 +17819,7 @@
       <c r="FT65" s="12"/>
       <c r="FZ65" s="12"/>
     </row>
-    <row r="66" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>160</v>
       </c>
@@ -17878,7 +17878,7 @@
       <c r="EU66" s="11"/>
       <c r="EV66" s="11"/>
     </row>
-    <row r="67" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>162</v>
       </c>
@@ -17940,7 +17940,7 @@
       <c r="HQ67" s="12"/>
       <c r="HS67" s="12"/>
     </row>
-    <row r="68" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>18</v>
       </c>
@@ -17994,7 +17994,7 @@
       <c r="EU68" s="11"/>
       <c r="EV68" s="11"/>
     </row>
-    <row r="69" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>165</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="HS69" s="49"/>
       <c r="HU69" s="49"/>
     </row>
-    <row r="70" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>18</v>
       </c>
@@ -18108,7 +18108,7 @@
       <c r="HS70" s="12"/>
       <c r="HU70" s="12"/>
     </row>
-    <row r="71" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="71" t="s">
         <v>120</v>
       </c>
@@ -18166,7 +18166,7 @@
       <c r="EU71" s="11"/>
       <c r="EV71" s="11"/>
     </row>
-    <row r="72" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="71" t="s">
         <v>120</v>
       </c>
@@ -18220,7 +18220,7 @@
       <c r="EU72" s="11"/>
       <c r="EV72" s="11"/>
     </row>
-    <row r="73" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="74" t="s">
         <v>120</v>
       </c>
@@ -18285,7 +18285,7 @@
       <c r="EU73" s="11"/>
       <c r="EV73" s="11"/>
     </row>
-    <row r="74" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C74" s="67" t="s">
         <v>190</v>
       </c>
@@ -18336,7 +18336,7 @@
       <c r="EU74" s="11"/>
       <c r="EV74" s="11"/>
     </row>
-    <row r="75" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W75" s="23"/>
       <c r="X75" s="23"/>
       <c r="Y75" s="23"/>
@@ -18378,7 +18378,7 @@
       <c r="EU75" s="11"/>
       <c r="EV75" s="11"/>
     </row>
-    <row r="76" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W76" s="23"/>
       <c r="X76" s="23"/>
       <c r="Y76" s="23"/>
@@ -18420,7 +18420,7 @@
       <c r="EU76" s="11"/>
       <c r="EV76" s="11"/>
     </row>
-    <row r="77" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W77" s="23"/>
       <c r="X77" s="23"/>
       <c r="Y77" s="23"/>
@@ -18462,7 +18462,7 @@
       <c r="EU77" s="11"/>
       <c r="EV77" s="11"/>
     </row>
-    <row r="78" spans="1:229" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:229" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W78" s="23"/>
       <c r="X78" s="23"/>
       <c r="Y78" s="23"/>
@@ -18507,6 +18507,113 @@
   </sheetData>
   <autoFilter ref="A3:JL74" xr:uid="{3605C9C1-6F26-4D96-A05A-97BDD32A35A7}"/>
   <mergeCells count="131">
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:GP2"/>
+    <mergeCell ref="GQ2:GR2"/>
+    <mergeCell ref="GS2:GT2"/>
+    <mergeCell ref="FS2:FT2"/>
+    <mergeCell ref="FU2:FV2"/>
+    <mergeCell ref="FW2:FX2"/>
+    <mergeCell ref="FY2:FZ2"/>
+    <mergeCell ref="GA2:GB2"/>
+    <mergeCell ref="GC2:GD2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="GI2:GJ2"/>
+    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="S1:CB1"/>
+    <mergeCell ref="CC1:EL1"/>
+    <mergeCell ref="EM1:GT1"/>
+    <mergeCell ref="EM2:EN2"/>
+    <mergeCell ref="EO2:EP2"/>
+    <mergeCell ref="EQ2:ER2"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="EU2:EV2"/>
+    <mergeCell ref="EW2:EX2"/>
+    <mergeCell ref="DY2:DZ2"/>
+    <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="EC2:ED2"/>
+    <mergeCell ref="EE2:EF2"/>
+    <mergeCell ref="EG2:EH2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FB2"/>
+    <mergeCell ref="FC2:FD2"/>
+    <mergeCell ref="FE2:FF2"/>
+    <mergeCell ref="FG2:FH2"/>
+    <mergeCell ref="GG2:GH2"/>
+    <mergeCell ref="FK2:FL2"/>
+    <mergeCell ref="FM2:FN2"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FQ2:FR2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="DW2:DX2"/>
+    <mergeCell ref="FI2:FJ2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="HU2:HV2"/>
+    <mergeCell ref="HW2:HX2"/>
+    <mergeCell ref="HE2:HF2"/>
+    <mergeCell ref="HG2:HH2"/>
+    <mergeCell ref="HI2:HJ2"/>
+    <mergeCell ref="HK2:HL2"/>
+    <mergeCell ref="HM2:HN2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="GW2:GX2"/>
+    <mergeCell ref="GY2:GZ2"/>
+    <mergeCell ref="HA2:HB2"/>
+    <mergeCell ref="HC2:HD2"/>
     <mergeCell ref="GU1:JD1"/>
     <mergeCell ref="JC2:JD2"/>
     <mergeCell ref="JE2:JF2"/>
@@ -18531,113 +18638,6 @@
     <mergeCell ref="HO2:HP2"/>
     <mergeCell ref="HQ2:HR2"/>
     <mergeCell ref="HS2:HT2"/>
-    <mergeCell ref="HU2:HV2"/>
-    <mergeCell ref="HW2:HX2"/>
-    <mergeCell ref="HE2:HF2"/>
-    <mergeCell ref="HG2:HH2"/>
-    <mergeCell ref="HI2:HJ2"/>
-    <mergeCell ref="HK2:HL2"/>
-    <mergeCell ref="HM2:HN2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="GW2:GX2"/>
-    <mergeCell ref="GY2:GZ2"/>
-    <mergeCell ref="HA2:HB2"/>
-    <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="FI2:FJ2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="S1:CB1"/>
-    <mergeCell ref="CC1:EL1"/>
-    <mergeCell ref="EM1:GT1"/>
-    <mergeCell ref="EM2:EN2"/>
-    <mergeCell ref="EO2:EP2"/>
-    <mergeCell ref="EQ2:ER2"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="EU2:EV2"/>
-    <mergeCell ref="EW2:EX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EE2:EF2"/>
-    <mergeCell ref="EG2:EH2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FB2"/>
-    <mergeCell ref="FC2:FD2"/>
-    <mergeCell ref="FE2:FF2"/>
-    <mergeCell ref="FG2:FH2"/>
-    <mergeCell ref="GG2:GH2"/>
-    <mergeCell ref="FK2:FL2"/>
-    <mergeCell ref="FM2:FN2"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FQ2:FR2"/>
-    <mergeCell ref="GM2:GN2"/>
-    <mergeCell ref="GO2:GP2"/>
-    <mergeCell ref="GQ2:GR2"/>
-    <mergeCell ref="GS2:GT2"/>
-    <mergeCell ref="FS2:FT2"/>
-    <mergeCell ref="FU2:FV2"/>
-    <mergeCell ref="FW2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GB2"/>
-    <mergeCell ref="GC2:GD2"/>
-    <mergeCell ref="GE2:GF2"/>
-    <mergeCell ref="GI2:GJ2"/>
-    <mergeCell ref="GK2:GL2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
